--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/海天味业/分析结果/投入资本计算表1.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/海天味业/分析结果/投入资本计算表1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13340"/>
+    <workbookView windowWidth="27240" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="338">
   <si>
     <t>名称</t>
   </si>
@@ -181,7 +181,10 @@
     <t>其他债务筹资费用(融资租赁的财务费用)</t>
   </si>
   <si>
-    <t>债务资本总平均金额</t>
+    <t>融资费用</t>
+  </si>
+  <si>
+    <t>有息债务资本总平均金额</t>
   </si>
   <si>
     <t>债务资本成本率</t>
@@ -2208,10 +2211,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2262,6 +2265,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2277,17 +2295,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2303,9 +2328,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2317,32 +2342,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2357,27 +2381,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2386,13 +2389,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2509,12 +2512,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2527,7 +2524,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,25 +2560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,7 +2572,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,19 +2632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,19 +2650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,7 +2668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2647,49 +2686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2827,6 +2824,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2848,6 +2854,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2858,15 +2879,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,108 +2908,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3009,59 +3006,59 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3431,7 +3428,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3479,10 +3476,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -3512,6 +3509,12 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3524,31 +3527,19 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="4" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="20" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3876,14 +3867,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BW102"/>
+  <dimension ref="A1:BX102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
+      <selection pane="bottomRight" activeCell="BQ3" sqref="BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3930,14 +3921,15 @@
     <col min="62" max="62" width="22.5" style="84" customWidth="1"/>
     <col min="63" max="63" width="20.375" style="79" customWidth="1"/>
     <col min="64" max="68" width="20.375" style="3" customWidth="1"/>
-    <col min="69" max="70" width="20.375" style="79" customWidth="1"/>
-    <col min="71" max="71" width="30.2884615384615" style="123" customWidth="1"/>
-    <col min="72" max="72" width="98.5576923076923" customWidth="1"/>
-    <col min="73" max="73" width="20" customWidth="1"/>
-    <col min="74" max="74" width="47.5961538461538" customWidth="1"/>
+    <col min="69" max="69" width="28.4615384615385" style="3" customWidth="1"/>
+    <col min="70" max="71" width="20.375" style="79" customWidth="1"/>
+    <col min="72" max="72" width="30.2884615384615" style="123" customWidth="1"/>
+    <col min="73" max="73" width="98.5576923076923" customWidth="1"/>
+    <col min="74" max="74" width="20" customWidth="1"/>
+    <col min="75" max="75" width="47.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:76">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4109,30 +4101,33 @@
       <c r="BO1" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="BP1" s="143" t="s">
+      <c r="BP1" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="BQ1" s="150" t="s">
+      <c r="BQ1" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="BR1" s="151" t="s">
+      <c r="BR1" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="BS1" s="152" t="s">
+      <c r="BS1" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BW1" s="1"/>
+      <c r="BW1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX1" s="1"/>
     </row>
-    <row r="2" ht="41" customHeight="1" spans="1:75">
+    <row r="2" ht="41" customHeight="1" spans="1:76">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="53"/>
@@ -4144,56 +4139,56 @@
       <c r="I2" s="131"/>
       <c r="J2" s="130"/>
       <c r="K2" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S2" s="26"/>
       <c r="T2" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W2" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="26"/>
       <c r="AD2" s="33"/>
@@ -4234,18 +4229,19 @@
       <c r="BM2" s="145"/>
       <c r="BN2" s="145"/>
       <c r="BO2" s="145"/>
-      <c r="BP2" s="145"/>
-      <c r="BQ2" s="153"/>
-      <c r="BR2" s="153"/>
-      <c r="BS2" s="154"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="1"/>
+      <c r="BP2" s="151"/>
+      <c r="BQ2" s="145"/>
+      <c r="BR2" s="155"/>
+      <c r="BS2" s="155"/>
+      <c r="BT2" s="144"/>
+      <c r="BU2" s="9"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:73">
       <c r="A3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9">
         <v>2022</v>
@@ -4255,7 +4251,7 @@
         <v>368853000000</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="11">
         <v>4633833787</v>
@@ -4419,26 +4415,30 @@
         <v>2115691.79</v>
       </c>
       <c r="BP3" s="11">
+        <f>SUM(BL3:BO3)</f>
+        <v>25529423.29</v>
+      </c>
+      <c r="BQ3" s="11">
         <f>(S3+S4)/2</f>
         <v>206894715.15</v>
       </c>
-      <c r="BQ3" s="54">
-        <f>(BL3+BM3+BN3+BO3)/BP3</f>
+      <c r="BR3" s="54">
+        <f>(BL3+BM3+BN3+BO3)/BQ3</f>
         <v>0.123393307902964</v>
       </c>
-      <c r="BR3" s="54">
-        <f>S3/G3*BQ3+(H3/G3)*0.09</f>
+      <c r="BS3" s="54">
+        <f>S3/G3*BR3+(H3/G3)*0.09</f>
         <v>0.0719654276648473</v>
       </c>
-      <c r="BS3" s="155">
-        <f>S3/(S3+H3)*BQ3+(H3/(S3+H3))*0.09</f>
+      <c r="BT3" s="156">
+        <f>S3/(S3+H3)*BR3+(H3/(S3+H3))*0.09</f>
         <v>0.0903139057429914</v>
       </c>
-      <c r="BT3" s="58" t="s">
-        <v>78</v>
+      <c r="BU3" s="58" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:73">
       <c r="A4" s="9"/>
       <c r="B4" s="9">
         <v>2021</v>
@@ -4448,7 +4448,7 @@
         <v>442784000000</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="11">
         <v>4212576170</v>
@@ -4610,24 +4610,28 @@
         <v>4082874.6</v>
       </c>
       <c r="BP4" s="11">
+        <f t="shared" ref="BP4:BP12" si="12">SUM(BL4:BO4)</f>
+        <v>10353796.28</v>
+      </c>
+      <c r="BQ4" s="11">
         <f>(S4+S5)/2</f>
         <v>125635086.9</v>
       </c>
-      <c r="BQ4" s="54">
-        <f>(BL4+BM4+BN4+BO4)/BP4</f>
+      <c r="BR4" s="54">
+        <f>(BL4+BM4+BN4+BO4)/BQ4</f>
         <v>0.0824116617059466</v>
       </c>
-      <c r="BR4" s="54">
-        <f>S4/G4*BQ4+(H4/G4)*0.09</f>
+      <c r="BS4" s="54">
+        <f>S4/G4*BR4+(H4/G4)*0.09</f>
         <v>0.0638334701126757</v>
       </c>
-      <c r="BS4" s="155">
-        <f>S4/(S4+H4)*BQ4+(H4/(S4+H4))*0.09</f>
+      <c r="BT4" s="156">
+        <f>S4/(S4+H4)*BR4+(H4/(S4+H4))*0.09</f>
         <v>0.0899491074242985</v>
       </c>
-      <c r="BT4" s="58"/>
+      <c r="BU4" s="58"/>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:73">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2020</v>
@@ -4637,7 +4641,7 @@
         <v>649838000000</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="11">
         <v>3240443208</v>
@@ -4683,7 +4687,7 @@
         <v>5054735186.75</v>
       </c>
       <c r="AC5" s="29">
-        <f t="shared" ref="AC5:AC13" si="12">T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5</f>
+        <f t="shared" ref="AC5:AC13" si="13">T5+U5+V5+W5+X5+Y5+Z5+AA5+AB5</f>
         <v>22017422810.49</v>
       </c>
       <c r="AD5" s="29">
@@ -4795,24 +4799,28 @@
       </c>
       <c r="BO5" s="11"/>
       <c r="BP5" s="11">
+        <f t="shared" si="12"/>
+        <v>7669979.84</v>
+      </c>
+      <c r="BQ5" s="11">
         <f>(S5+S6)/2</f>
         <v>56100000</v>
       </c>
-      <c r="BQ5" s="54">
-        <f>(BL5+BM5+BN5+BO5)/BP5</f>
+      <c r="BR5" s="54">
+        <f>(BL5+BM5+BN5+BO5)/BQ5</f>
         <v>0.136719783244207</v>
       </c>
-      <c r="BR5" s="54">
-        <f>S5/G5*BQ5+(H5/G5)*0.09</f>
+      <c r="BS5" s="54">
+        <f>S5/G5*BR5+(H5/G5)*0.09</f>
         <v>0.0618821315701377</v>
       </c>
-      <c r="BS5" s="155">
-        <f>S5/(S5+H5)*BQ5+(H5/(S5+H5))*0.09</f>
+      <c r="BT5" s="156">
+        <f>S5/(S5+H5)*BR5+(H5/(S5+H5))*0.09</f>
         <v>0.0902135510129674</v>
       </c>
-      <c r="BT5" s="58"/>
+      <c r="BU5" s="58"/>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:73">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>2019</v>
@@ -4822,7 +4830,7 @@
         <v>290317000000</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="11">
         <v>2700369340</v>
@@ -4868,7 +4876,7 @@
         <v>4878142342.48</v>
       </c>
       <c r="AC6" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18339199596.54</v>
       </c>
       <c r="AD6" s="29">
@@ -4980,24 +4988,28 @@
       </c>
       <c r="BO6" s="11"/>
       <c r="BP6" s="11">
-        <f t="shared" ref="BP6:BP12" si="13">(S6+S7)/2</f>
+        <f t="shared" si="12"/>
+        <v>1975303.87</v>
+      </c>
+      <c r="BQ6" s="11">
+        <f t="shared" ref="BQ6:BQ12" si="14">(S6+S7)/2</f>
         <v>19600000</v>
       </c>
-      <c r="BQ6" s="54">
-        <f>(BL6+BM6+BN6+BO6)/BP6</f>
+      <c r="BR6" s="54">
+        <f>(BL6+BM6+BN6+BO6)/BQ6</f>
         <v>0.100780809693878</v>
       </c>
-      <c r="BR6" s="54">
-        <f>S6/G6*BQ6+(H6/G6)*0.09</f>
+      <c r="BS6" s="54">
+        <f>S6/G6*BR6+(H6/G6)*0.09</f>
         <v>0.0604256150901184</v>
       </c>
-      <c r="BS6" s="155">
-        <f>S6/(S6+H6)*BQ6+(H6/(S6+H6))*0.09</f>
+      <c r="BT6" s="156">
+        <f>S6/(S6+H6)*BR6+(H6/(S6+H6))*0.09</f>
         <v>0.0900127158914964</v>
       </c>
-      <c r="BT6" s="58"/>
+      <c r="BU6" s="58"/>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:73">
       <c r="A7" s="9"/>
       <c r="B7" s="9">
         <v>2018</v>
@@ -5007,7 +5019,7 @@
         <v>185785000000</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="11">
         <v>2700369340</v>
@@ -5051,7 +5063,7 @@
       <c r="AA7" s="29"/>
       <c r="AB7" s="29"/>
       <c r="AC7" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9463438483.63</v>
       </c>
       <c r="AD7" s="29">
@@ -5154,20 +5166,39 @@
         <f t="shared" si="11"/>
         <v>1.14500407222607</v>
       </c>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
+      <c r="BL7" s="11">
+        <v>595082.65</v>
+      </c>
+      <c r="BM7" s="11">
+        <v>-469476.97</v>
+      </c>
+      <c r="BN7" s="11">
+        <v>277296.29</v>
+      </c>
       <c r="BO7" s="11"/>
       <c r="BP7" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>402901.97</v>
+      </c>
+      <c r="BQ7" s="11">
+        <f t="shared" si="14"/>
         <v>9800000</v>
       </c>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="155"/>
-      <c r="BT7" s="58"/>
+      <c r="BR7" s="54">
+        <f>(BL7+BM7+BN7+BO7)/BQ7</f>
+        <v>0.0411124459183674</v>
+      </c>
+      <c r="BS7" s="54">
+        <f>S7/G7*BR7+(H7/G7)*0.09</f>
+        <v>0.0620891216489863</v>
+      </c>
+      <c r="BT7" s="156">
+        <f>S7/(S7+H7)*BR7+(H7/(S7+H7))*0.09</f>
+        <v>0.0899311018408209</v>
+      </c>
+      <c r="BU7" s="58"/>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:73">
       <c r="A8" s="9"/>
       <c r="B8" s="9">
         <v>2017</v>
@@ -5177,7 +5208,7 @@
         <v>145325000000</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="11">
         <v>2701206700</v>
@@ -5200,7 +5231,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11">
-        <f t="shared" ref="S8:S14" si="14">L8+M8+O8+P8+Q8+R8</f>
+        <f t="shared" ref="S8:S14" si="15">L8+M8+O8+P8+Q8+R8</f>
         <v>0</v>
       </c>
       <c r="T8" s="11">
@@ -5219,7 +5250,7 @@
       <c r="AA8" s="29"/>
       <c r="AB8" s="29"/>
       <c r="AC8" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5617724313.67</v>
       </c>
       <c r="AD8" s="29">
@@ -5323,23 +5354,42 @@
         <v>0.672467093100705</v>
       </c>
       <c r="BK8" s="54">
-        <f t="shared" ref="BK8:BK14" si="15">BI8/BD8</f>
+        <f t="shared" ref="BK8:BK14" si="16">BI8/BD8</f>
         <v>0.671740703089314</v>
       </c>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
+      <c r="BL8" s="11">
+        <v>632104.08</v>
+      </c>
+      <c r="BM8" s="11">
+        <v>1056228.46</v>
+      </c>
+      <c r="BN8" s="11">
+        <v>125563.01</v>
+      </c>
       <c r="BO8" s="11"/>
       <c r="BP8" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>1813895.55</v>
+      </c>
+      <c r="BQ8" s="11">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BQ8" s="54"/>
-      <c r="BR8" s="54"/>
-      <c r="BS8" s="155"/>
-      <c r="BT8" s="58"/>
+      <c r="BR8" s="54" t="e">
+        <f>(BL8+BM8+BN8+BO8)/BQ8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS8" s="54" t="e">
+        <f>S8/G8*BR8+(H8/G8)*0.09</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT8" s="156" t="e">
+        <f>S8/(S8+H8)*BR8+(H8/(S8+H8))*0.09</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU8" s="58"/>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:73">
       <c r="A9" s="9"/>
       <c r="B9" s="9">
         <v>2016</v>
@@ -5349,7 +5399,7 @@
         <v>79336000000</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="11">
         <v>2704950700</v>
@@ -5372,7 +5422,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T9" s="11">
@@ -5391,7 +5441,7 @@
       <c r="AA9" s="29"/>
       <c r="AB9" s="29"/>
       <c r="AC9" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5201988965.76</v>
       </c>
       <c r="AD9" s="29">
@@ -5493,23 +5543,40 @@
         <v>0.699885859223475</v>
       </c>
       <c r="BK9" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.697438569909239</v>
       </c>
       <c r="BL9" s="11"/>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="11"/>
+      <c r="BM9" s="11">
+        <v>-1792439.78</v>
+      </c>
+      <c r="BN9" s="11">
+        <v>497245.57</v>
+      </c>
       <c r="BO9" s="11"/>
       <c r="BP9" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>-1295194.21</v>
+      </c>
+      <c r="BQ9" s="11">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BQ9" s="54"/>
-      <c r="BR9" s="54"/>
-      <c r="BS9" s="155"/>
-      <c r="BT9" s="58"/>
+      <c r="BR9" s="54" t="e">
+        <f>(BL9+BM9+BN9+BO9)/BQ9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS9" s="54" t="e">
+        <f>S9/G9*BR9+(H9/G9)*0.09</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT9" s="156" t="e">
+        <f>S9/(S9+H9)*BR9+(H9/(S9+H9))*0.09</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU9" s="58"/>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:73">
       <c r="A10" s="9"/>
       <c r="B10" s="9">
         <v>2015</v>
@@ -5519,7 +5586,7 @@
         <v>95666000000</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="11">
         <v>2706246000</v>
@@ -5542,7 +5609,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T10" s="11">
@@ -5561,7 +5628,7 @@
       <c r="AA10" s="29"/>
       <c r="AB10" s="29"/>
       <c r="AC10" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4525014823.411</v>
       </c>
       <c r="AD10" s="29">
@@ -5663,23 +5730,40 @@
         <v>0.701002958750737</v>
       </c>
       <c r="BK10" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.695758737942873</v>
       </c>
       <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
+      <c r="BM10" s="11">
+        <v>-1345362.1</v>
+      </c>
+      <c r="BN10" s="11">
+        <v>326429.66</v>
+      </c>
       <c r="BO10" s="11"/>
       <c r="BP10" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>-1018932.44</v>
+      </c>
+      <c r="BQ10" s="11">
+        <f t="shared" si="14"/>
         <v>57936900</v>
       </c>
-      <c r="BQ10" s="54"/>
-      <c r="BR10" s="54"/>
-      <c r="BS10" s="155"/>
-      <c r="BT10" s="58"/>
+      <c r="BR10" s="54">
+        <f>(BL10+BM10+BN10+BO10)/BQ10</f>
+        <v>-0.0175869340610216</v>
+      </c>
+      <c r="BS10" s="54">
+        <f>S10/G10*BR10+(H10/G10)*0.09</f>
+        <v>0.0684989694315073</v>
+      </c>
+      <c r="BT10" s="156">
+        <f>S10/(S10+H10)*BR10+(H10/(S10+H10))*0.09</f>
+        <v>0.09</v>
+      </c>
+      <c r="BU10" s="58"/>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:73">
       <c r="A11" s="9"/>
       <c r="B11" s="9">
         <v>2014</v>
@@ -5689,7 +5773,7 @@
         <v>60068000000</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="11">
         <v>1503580000</v>
@@ -5714,7 +5798,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>115873800</v>
       </c>
       <c r="T11" s="11">
@@ -5733,7 +5817,7 @@
       <c r="AA11" s="29"/>
       <c r="AB11" s="29"/>
       <c r="AC11" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5124198159.09</v>
       </c>
       <c r="AD11" s="29">
@@ -5835,23 +5919,40 @@
         <v>0.985483602224648</v>
       </c>
       <c r="BK11" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.950352835243949</v>
       </c>
       <c r="BL11" s="11"/>
-      <c r="BM11" s="11"/>
-      <c r="BN11" s="11"/>
+      <c r="BM11" s="11">
+        <v>652481.04</v>
+      </c>
+      <c r="BN11" s="11">
+        <v>349268.11</v>
+      </c>
       <c r="BO11" s="11"/>
       <c r="BP11" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>1001749.15</v>
+      </c>
+      <c r="BQ11" s="11">
+        <f t="shared" si="14"/>
         <v>57936900</v>
       </c>
-      <c r="BQ11" s="54"/>
-      <c r="BR11" s="54"/>
-      <c r="BS11" s="155"/>
-      <c r="BT11" s="58"/>
+      <c r="BR11" s="54">
+        <f>(BL11+BM11+BN11+BO11)/BQ11</f>
+        <v>0.0172903477749068</v>
+      </c>
+      <c r="BS11" s="54">
+        <f>S11/G11*BR11+(H11/G11)*0.09</f>
+        <v>0.0614435509116694</v>
+      </c>
+      <c r="BT11" s="156">
+        <f>S11/(S11+H11)*BR11+(H11/(S11+H11))*0.09</f>
+        <v>0.0888919804227225</v>
+      </c>
+      <c r="BU11" s="58"/>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:72">
+    <row r="12" ht="20" customHeight="1" spans="1:73">
       <c r="A12" s="9"/>
       <c r="B12" s="9">
         <v>2013</v>
@@ -5880,7 +5981,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T12" s="11">
@@ -5899,7 +6000,7 @@
       <c r="AA12" s="29"/>
       <c r="AB12" s="29"/>
       <c r="AC12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2272081043.07</v>
       </c>
       <c r="AD12" s="29">
@@ -5999,23 +6100,40 @@
         <v>1.19379284247546</v>
       </c>
       <c r="BK12" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.14540715638859</v>
       </c>
       <c r="BL12" s="11"/>
-      <c r="BM12" s="11"/>
-      <c r="BN12" s="11"/>
+      <c r="BM12" s="11">
+        <v>1391673.12</v>
+      </c>
+      <c r="BN12" s="11">
+        <v>1123403.73</v>
+      </c>
       <c r="BO12" s="11"/>
       <c r="BP12" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
+        <v>2515076.85</v>
+      </c>
+      <c r="BQ12" s="11">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BQ12" s="54"/>
-      <c r="BR12" s="54"/>
-      <c r="BS12" s="155"/>
-      <c r="BT12" s="58"/>
+      <c r="BR12" s="54" t="e">
+        <f>(BL12+BM12+BN12+BO12)/BQ12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS12" s="54" t="e">
+        <f>S12/G12*BR12+(H12/G12)*0.09</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BT12" s="156" t="e">
+        <f>S12/(S12+H12)*BR12+(H12/(S12+H12))*0.09</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BU12" s="58"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:72">
+    <row r="13" ht="23" customHeight="1" spans="1:73">
       <c r="A13" s="9"/>
       <c r="B13" s="9">
         <v>2012</v>
@@ -6045,7 +6163,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T13" s="11"/>
@@ -6067,7 +6185,7 @@
       <c r="AA13" s="29"/>
       <c r="AB13" s="29"/>
       <c r="AC13" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2509144500</v>
       </c>
       <c r="AD13" s="29">
@@ -6167,7 +6285,7 @@
         <v>1.28537385784562</v>
       </c>
       <c r="BK13" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.27934475958066</v>
       </c>
       <c r="BL13" s="11"/>
@@ -6175,14 +6293,15 @@
       <c r="BN13" s="11"/>
       <c r="BO13" s="11"/>
       <c r="BP13" s="11"/>
-      <c r="BQ13" s="54"/>
+      <c r="BQ13" s="11"/>
       <c r="BR13" s="54"/>
-      <c r="BS13" s="155"/>
-      <c r="BT13" s="58"/>
+      <c r="BS13" s="54"/>
+      <c r="BT13" s="156"/>
+      <c r="BU13" s="58"/>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:73">
       <c r="A14" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="12">
         <v>2022</v>
@@ -6192,7 +6311,7 @@
         <v>28957000000</v>
       </c>
       <c r="D14" s="124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -6206,7 +6325,7 @@
         <v>3009131107.56</v>
       </c>
       <c r="J14" s="42">
-        <f t="shared" ref="J14:J24" si="16">I14/H14</f>
+        <f t="shared" ref="J14:J24" si="17">I14/H14</f>
         <v>0.868477119615391</v>
       </c>
       <c r="K14" s="11"/>
@@ -6222,7 +6341,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11">
-        <f t="shared" ref="S14:S46" si="17">L14+M14+O14+P14+Q14+R14</f>
+        <f t="shared" ref="S14:S46" si="18">L14+M14+O14+P14+Q14+R14</f>
         <v>360237800</v>
       </c>
       <c r="T14" s="11"/>
@@ -6245,19 +6364,19 @@
         <v>133952.44</v>
       </c>
       <c r="AC14" s="29">
-        <f t="shared" ref="AC14:AC46" si="18">T14+U14+V14+W14+X14+Y14+Z14+AA14+AB14</f>
+        <f t="shared" ref="AC14:AC46" si="19">T14+U14+V14+W14+X14+Y14+Z14+AA14+AB14</f>
         <v>1177801337.12</v>
       </c>
       <c r="AD14" s="29">
-        <f t="shared" ref="AD14:AD46" si="19">SUM(T14:Y14)</f>
+        <f t="shared" ref="AD14:AD46" si="20">SUM(T14:Y14)</f>
         <v>549306982.74</v>
       </c>
       <c r="AE14" s="29">
-        <f t="shared" ref="AE14:AE46" si="20">SUM(Z14:AB14)</f>
+        <f t="shared" ref="AE14:AE46" si="21">SUM(Z14:AB14)</f>
         <v>628494354.38</v>
       </c>
       <c r="AF14" s="29">
-        <f t="shared" ref="AF14:AF46" si="21">G14-AC14</f>
+        <f t="shared" ref="AF14:AF46" si="22">G14-AC14</f>
         <v>5045575233.38</v>
       </c>
       <c r="AG14" s="29">
@@ -6270,7 +6389,7 @@
         <v>188480697.36</v>
       </c>
       <c r="AJ14" s="42">
-        <f t="shared" ref="AJ14:AJ46" si="22">SUM(AG14:AI14)/AF14</f>
+        <f t="shared" ref="AJ14:AJ46" si="23">SUM(AG14:AI14)/AF14</f>
         <v>0.454655767047846</v>
       </c>
       <c r="AK14" s="42"/>
@@ -6296,7 +6415,7 @@
         <v>3825074166.55</v>
       </c>
       <c r="BD14" s="29">
-        <f t="shared" ref="BD14:BD46" si="23">H14+L14+M14+O14+P14+Q14+R14-T14-U14-V14-W14-X14-Y14-Z14-AA14-AB14</f>
+        <f t="shared" ref="BD14:BD46" si="24">H14+L14+M14+O14+P14+Q14+R14-T14-U14-V14-W14-X14-Y14-Z14-AA14-AB14</f>
         <v>2647272829.43</v>
       </c>
       <c r="BE14" s="29">
@@ -6309,19 +6428,19 @@
         <v>-4190779.77</v>
       </c>
       <c r="BH14" s="11">
-        <f t="shared" ref="BH14:BH46" si="24">BF14+BG14</f>
+        <f t="shared" ref="BH14:BH46" si="25">BF14+BG14</f>
         <v>-478600560.68</v>
       </c>
       <c r="BI14" s="11">
-        <f t="shared" ref="BI14:BI46" si="25">BE14+BG14</f>
+        <f t="shared" ref="BI14:BI46" si="26">BE14+BG14</f>
         <v>701502555.39</v>
       </c>
       <c r="BJ14" s="42">
-        <f t="shared" ref="BJ14:BJ46" si="26">BH14/BD14</f>
+        <f t="shared" ref="BJ14:BJ46" si="27">BH14/BD14</f>
         <v>-0.180790039983544</v>
       </c>
       <c r="BK14" s="54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.264990652867859</v>
       </c>
       <c r="BL14" s="146"/>
@@ -6329,12 +6448,13 @@
       <c r="BN14" s="146"/>
       <c r="BO14" s="146"/>
       <c r="BP14" s="146"/>
-      <c r="BQ14" s="156"/>
-      <c r="BR14" s="156"/>
+      <c r="BQ14" s="146"/>
+      <c r="BR14" s="157"/>
       <c r="BS14" s="157"/>
-      <c r="BT14" s="13"/>
+      <c r="BT14" s="142"/>
+      <c r="BU14" s="13"/>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:73">
       <c r="A15" s="12"/>
       <c r="B15" s="12">
         <v>2021</v>
@@ -6344,7 +6464,7 @@
         <v>30248000000</v>
       </c>
       <c r="D15" s="124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -6358,7 +6478,7 @@
         <v>3832349780.64</v>
       </c>
       <c r="J15" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90165101264758</v>
       </c>
       <c r="K15" s="11"/>
@@ -6374,7 +6494,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>112678000</v>
       </c>
       <c r="T15" s="11"/>
@@ -6395,19 +6515,19 @@
       <c r="AA15" s="29"/>
       <c r="AB15" s="29"/>
       <c r="AC15" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1142072981.87</v>
       </c>
       <c r="AD15" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>593416245.84</v>
       </c>
       <c r="AE15" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>548656736.03</v>
       </c>
       <c r="AF15" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4775579826.26</v>
       </c>
       <c r="AG15" s="29">
@@ -6420,7 +6540,7 @@
         <v>192297802.7</v>
       </c>
       <c r="AJ15" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.435348758238265</v>
       </c>
       <c r="AK15" s="42"/>
@@ -6446,7 +6566,7 @@
         <v>4363047296.86</v>
       </c>
       <c r="BD15" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3220974314.99</v>
       </c>
       <c r="BE15" s="29">
@@ -6459,19 +6579,19 @@
         <v>19896160.07</v>
       </c>
       <c r="BH15" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>896419764.09</v>
       </c>
       <c r="BI15" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>897391620.18</v>
       </c>
       <c r="BJ15" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.278307020306923</v>
       </c>
       <c r="BK15" s="54">
-        <f t="shared" ref="BK15:BK42" si="27">BI15/BD15</f>
+        <f t="shared" ref="BK15:BK42" si="28">BI15/BD15</f>
         <v>0.278608747671056</v>
       </c>
       <c r="BL15" s="147"/>
@@ -6479,12 +6599,13 @@
       <c r="BN15" s="147"/>
       <c r="BO15" s="147"/>
       <c r="BP15" s="147"/>
-      <c r="BQ15" s="158"/>
+      <c r="BQ15" s="147"/>
       <c r="BR15" s="158"/>
-      <c r="BS15" s="159"/>
-      <c r="BT15" s="14"/>
+      <c r="BS15" s="158"/>
+      <c r="BT15" s="159"/>
+      <c r="BU15" s="14"/>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:73">
       <c r="A16" s="12"/>
       <c r="B16" s="12">
         <v>2020</v>
@@ -6494,7 +6615,7 @@
         <v>53096000000</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -6508,7 +6629,7 @@
         <v>4615875380.59</v>
       </c>
       <c r="J16" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.92472136328064</v>
       </c>
       <c r="K16" s="11"/>
@@ -6522,7 +6643,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>360237800</v>
       </c>
       <c r="T16" s="11"/>
@@ -6545,19 +6666,19 @@
         <v>779007720.05</v>
       </c>
       <c r="AC16" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1609712498.04</v>
       </c>
       <c r="AD16" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>589003781.42</v>
       </c>
       <c r="AE16" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1020708716.62</v>
       </c>
       <c r="AF16" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5049211062.23</v>
       </c>
       <c r="AG16" s="29">
@@ -6570,7 +6691,7 @@
         <v>197604336.16</v>
       </c>
       <c r="AJ16" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.372899960961116</v>
       </c>
       <c r="AK16" s="42"/>
@@ -6596,7 +6717,7 @@
         <v>5351876972.49</v>
       </c>
       <c r="BD16" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3742164474.45</v>
       </c>
       <c r="BE16" s="29">
@@ -6609,19 +6730,19 @@
         <v>13317353.72</v>
       </c>
       <c r="BH16" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1143393880.64</v>
       </c>
       <c r="BI16" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1182081823.28</v>
       </c>
       <c r="BJ16" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.305543459793559</v>
       </c>
       <c r="BK16" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.315881846281953</v>
       </c>
       <c r="BL16" s="147"/>
@@ -6629,12 +6750,13 @@
       <c r="BN16" s="147"/>
       <c r="BO16" s="147"/>
       <c r="BP16" s="147"/>
-      <c r="BQ16" s="158"/>
+      <c r="BQ16" s="147"/>
       <c r="BR16" s="158"/>
-      <c r="BS16" s="159"/>
-      <c r="BT16" s="14"/>
+      <c r="BS16" s="158"/>
+      <c r="BT16" s="159"/>
+      <c r="BU16" s="14"/>
     </row>
-    <row r="17" spans="1:72">
+    <row r="17" spans="1:73">
       <c r="A17" s="12"/>
       <c r="B17" s="12">
         <v>2019</v>
@@ -6644,7 +6766,7 @@
         <v>31348000000</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -6658,7 +6780,7 @@
         <v>3948972297.92</v>
       </c>
       <c r="J17" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.930089950295827</v>
       </c>
       <c r="K17" s="11"/>
@@ -6672,7 +6794,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>112678000</v>
       </c>
       <c r="T17" s="11"/>
@@ -6695,19 +6817,19 @@
         <v>1134800000</v>
       </c>
       <c r="AC17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2197048894.1</v>
       </c>
       <c r="AD17" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>363426194.45</v>
       </c>
       <c r="AE17" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1833622699.65</v>
       </c>
       <c r="AF17" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3756678043.14</v>
       </c>
       <c r="AG17" s="29">
@@ -6720,7 +6842,7 @@
         <v>211469631.7</v>
       </c>
       <c r="AJ17" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.532839790211802</v>
       </c>
       <c r="AK17" s="42"/>
@@ -6746,7 +6868,7 @@
         <v>4358474115.38</v>
       </c>
       <c r="BD17" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2161425221.28</v>
       </c>
       <c r="BE17" s="29">
@@ -6759,19 +6881,19 @@
         <v>48871548.21</v>
       </c>
       <c r="BH17" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>976893453.89</v>
       </c>
       <c r="BI17" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>979816791.92</v>
       </c>
       <c r="BJ17" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.451967268759583</v>
       </c>
       <c r="BK17" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.453319773579653</v>
       </c>
       <c r="BL17" s="147"/>
@@ -6779,12 +6901,13 @@
       <c r="BN17" s="147"/>
       <c r="BO17" s="147"/>
       <c r="BP17" s="147"/>
-      <c r="BQ17" s="158"/>
+      <c r="BQ17" s="147"/>
       <c r="BR17" s="158"/>
-      <c r="BS17" s="159"/>
-      <c r="BT17" s="14"/>
+      <c r="BS17" s="158"/>
+      <c r="BT17" s="159"/>
+      <c r="BU17" s="14"/>
     </row>
-    <row r="18" spans="1:72">
+    <row r="18" spans="1:73">
       <c r="A18" s="12"/>
       <c r="B18" s="12">
         <v>2018</v>
@@ -6794,7 +6917,7 @@
         <v>23469000000</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -6808,7 +6931,7 @@
         <v>3604791230.11</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.913114233185033</v>
       </c>
       <c r="K18" s="11"/>
@@ -6824,7 +6947,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>401136053.53</v>
       </c>
       <c r="T18" s="11">
@@ -6845,19 +6968,19 @@
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
       <c r="AC18" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>742588670.25</v>
       </c>
       <c r="AD18" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>345463199.59</v>
       </c>
       <c r="AE18" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>397125470.66</v>
       </c>
       <c r="AF18" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5241098793.5</v>
       </c>
       <c r="AG18" s="29">
@@ -6870,7 +6993,7 @@
         <v>210168419.28</v>
       </c>
       <c r="AJ18" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.368136949378419</v>
       </c>
       <c r="AK18" s="42"/>
@@ -6896,7 +7019,7 @@
         <v>4348934805.43</v>
       </c>
       <c r="BD18" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3606346135.18</v>
       </c>
       <c r="BE18" s="29">
@@ -6909,19 +7032,19 @@
         <v>54180930.6</v>
       </c>
       <c r="BH18" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>846746567.97</v>
       </c>
       <c r="BI18" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>852726500.05</v>
       </c>
       <c r="BJ18" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.234793482441956</v>
       </c>
       <c r="BK18" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.236451651640321</v>
       </c>
       <c r="BL18" s="147"/>
@@ -6929,12 +7052,13 @@
       <c r="BN18" s="147"/>
       <c r="BO18" s="147"/>
       <c r="BP18" s="147"/>
-      <c r="BQ18" s="158"/>
+      <c r="BQ18" s="147"/>
       <c r="BR18" s="158"/>
-      <c r="BS18" s="159"/>
-      <c r="BT18" s="14"/>
+      <c r="BS18" s="158"/>
+      <c r="BT18" s="159"/>
+      <c r="BU18" s="14"/>
     </row>
-    <row r="19" spans="1:72">
+    <row r="19" spans="1:73">
       <c r="A19" s="12"/>
       <c r="B19" s="12">
         <v>2017</v>
@@ -6944,7 +7068,7 @@
         <v>19725000000</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -6958,7 +7082,7 @@
         <v>3140811451.38</v>
       </c>
       <c r="J19" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.910339060014692</v>
       </c>
       <c r="K19" s="11"/>
@@ -6976,7 +7100,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>931062136.62</v>
       </c>
       <c r="T19" s="11">
@@ -6997,19 +7121,19 @@
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
       <c r="AC19" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>659099134.28</v>
       </c>
       <c r="AD19" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>418335819.26</v>
       </c>
       <c r="AE19" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>240763315.02</v>
       </c>
       <c r="AF19" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4645663741.66</v>
       </c>
       <c r="AG19" s="29">
@@ -7022,7 +7146,7 @@
         <v>211923542.08</v>
       </c>
       <c r="AJ19" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.364444775502633</v>
       </c>
       <c r="AK19" s="42"/>
@@ -7048,7 +7172,7 @@
         <v>4381217786.68</v>
       </c>
       <c r="BD19" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3722118652.4</v>
       </c>
       <c r="BE19" s="29">
@@ -7059,19 +7183,19 @@
       </c>
       <c r="BG19" s="29"/>
       <c r="BH19" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>609177803.64</v>
       </c>
       <c r="BI19" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>611029991.65</v>
       </c>
       <c r="BJ19" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.163664262354239</v>
       </c>
       <c r="BK19" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.164161878949241</v>
       </c>
       <c r="BL19" s="147"/>
@@ -7079,12 +7203,13 @@
       <c r="BN19" s="147"/>
       <c r="BO19" s="147"/>
       <c r="BP19" s="147"/>
-      <c r="BQ19" s="158"/>
+      <c r="BQ19" s="147"/>
       <c r="BR19" s="158"/>
-      <c r="BS19" s="159"/>
-      <c r="BT19" s="14"/>
+      <c r="BS19" s="158"/>
+      <c r="BT19" s="159"/>
+      <c r="BU19" s="14"/>
     </row>
-    <row r="20" spans="1:72">
+    <row r="20" spans="1:73">
       <c r="A20" s="12"/>
       <c r="B20" s="12">
         <v>2016</v>
@@ -7094,7 +7219,7 @@
         <v>11217000000</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -7108,7 +7233,7 @@
         <v>2799259157.1</v>
       </c>
       <c r="J20" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.906171695444247</v>
       </c>
       <c r="K20" s="11"/>
@@ -7122,7 +7247,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>894432652.35</v>
       </c>
       <c r="T20" s="11">
@@ -7143,19 +7268,19 @@
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>561921784.8</v>
       </c>
       <c r="AD20" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>446197460.72</v>
       </c>
       <c r="AE20" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>115724324.08</v>
       </c>
       <c r="AF20" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4348944800.24</v>
       </c>
       <c r="AG20" s="29">
@@ -7168,7 +7293,7 @@
         <v>143185158.14</v>
       </c>
       <c r="AJ20" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.0847699413590293</v>
       </c>
       <c r="AK20" s="42"/>
@@ -7194,7 +7319,7 @@
         <v>3983537257.11</v>
       </c>
       <c r="BD20" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3421615472.31</v>
       </c>
       <c r="BE20" s="29">
@@ -7207,19 +7332,19 @@
         <v>63247203.54</v>
       </c>
       <c r="BH20" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>549509695.93</v>
       </c>
       <c r="BI20" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>530628738.28</v>
       </c>
       <c r="BJ20" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.160599488860452</v>
       </c>
       <c r="BK20" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.15508134756059</v>
       </c>
       <c r="BL20" s="147"/>
@@ -7227,12 +7352,13 @@
       <c r="BN20" s="147"/>
       <c r="BO20" s="147"/>
       <c r="BP20" s="147"/>
-      <c r="BQ20" s="158"/>
+      <c r="BQ20" s="147"/>
       <c r="BR20" s="158"/>
-      <c r="BS20" s="159"/>
-      <c r="BT20" s="14"/>
+      <c r="BS20" s="158"/>
+      <c r="BT20" s="159"/>
+      <c r="BU20" s="14"/>
     </row>
-    <row r="21" spans="1:72">
+    <row r="21" spans="1:73">
       <c r="A21" s="12"/>
       <c r="B21" s="4">
         <v>2015</v>
@@ -7242,7 +7368,7 @@
         <v>12467000000</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -7256,7 +7382,7 @@
         <v>2513979782.5</v>
       </c>
       <c r="J21" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.898302884011363</v>
       </c>
       <c r="K21" s="11"/>
@@ -7270,7 +7396,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>892732741.68</v>
       </c>
       <c r="T21" s="11">
@@ -7291,19 +7417,19 @@
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
       <c r="AC21" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>596018254.19</v>
       </c>
       <c r="AD21" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>504203182.44</v>
       </c>
       <c r="AE21" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>91815071.75</v>
       </c>
       <c r="AF21" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3927096916.39</v>
       </c>
       <c r="AG21" s="29">
@@ -7316,7 +7442,7 @@
         <v>107229007.99</v>
       </c>
       <c r="AJ21" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.0845715724111294</v>
       </c>
       <c r="AK21" s="42"/>
@@ -7342,7 +7468,7 @@
         <v>3691320865.18</v>
       </c>
       <c r="BD21" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3095302610.99</v>
       </c>
       <c r="BE21" s="29">
@@ -7355,19 +7481,19 @@
         <v>61164838.68</v>
       </c>
       <c r="BH21" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>400284110.24</v>
       </c>
       <c r="BI21" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>361973790.35</v>
       </c>
       <c r="BJ21" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.129319863207809</v>
       </c>
       <c r="BK21" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.116942940914661</v>
       </c>
       <c r="BL21" s="147"/>
@@ -7375,12 +7501,13 @@
       <c r="BN21" s="147"/>
       <c r="BO21" s="147"/>
       <c r="BP21" s="147"/>
-      <c r="BQ21" s="158"/>
+      <c r="BQ21" s="147"/>
       <c r="BR21" s="158"/>
-      <c r="BS21" s="159"/>
-      <c r="BT21" s="14"/>
+      <c r="BS21" s="158"/>
+      <c r="BT21" s="159"/>
+      <c r="BU21" s="14"/>
     </row>
-    <row r="22" spans="1:72">
+    <row r="22" spans="1:73">
       <c r="A22" s="12"/>
       <c r="B22" s="4">
         <v>2014</v>
@@ -7390,7 +7517,7 @@
         <v>8269000000</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -7404,7 +7531,7 @@
         <v>2354641481.49</v>
       </c>
       <c r="J22" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.901285375228374</v>
       </c>
       <c r="K22" s="11"/>
@@ -7422,7 +7549,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>703806064.74</v>
       </c>
       <c r="T22" s="11">
@@ -7445,19 +7572,19 @@
         <v>2792908.28</v>
       </c>
       <c r="AC22" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>819072156.75</v>
       </c>
       <c r="AD22" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>545917036.49</v>
       </c>
       <c r="AE22" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>273155120.26</v>
       </c>
       <c r="AF22" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3239897430.96</v>
       </c>
       <c r="AG22" s="29">
@@ -7470,7 +7597,7 @@
         <v>114142333.91</v>
       </c>
       <c r="AJ22" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.457295219772126</v>
       </c>
       <c r="AK22" s="42"/>
@@ -7496,7 +7623,7 @@
         <v>3316343165.87</v>
       </c>
       <c r="BD22" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2497271009.12</v>
       </c>
       <c r="BE22" s="29">
@@ -7509,19 +7636,19 @@
         <v>33214100.66</v>
       </c>
       <c r="BH22" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>377238406.76</v>
       </c>
       <c r="BI22" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>356001776.38</v>
       </c>
       <c r="BJ22" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.151060259532238</v>
       </c>
       <c r="BK22" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.142556324515796</v>
       </c>
       <c r="BL22" s="147"/>
@@ -7529,12 +7656,13 @@
       <c r="BN22" s="147"/>
       <c r="BO22" s="147"/>
       <c r="BP22" s="147"/>
-      <c r="BQ22" s="158"/>
+      <c r="BQ22" s="147"/>
       <c r="BR22" s="158"/>
-      <c r="BS22" s="159"/>
-      <c r="BT22" s="14"/>
+      <c r="BS22" s="158"/>
+      <c r="BT22" s="159"/>
+      <c r="BU22" s="14"/>
     </row>
-    <row r="23" spans="1:72">
+    <row r="23" spans="1:73">
       <c r="A23" s="12"/>
       <c r="B23" s="4">
         <v>2013</v>
@@ -7544,7 +7672,7 @@
         <v>9058000000</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -7558,7 +7686,7 @@
         <v>2132672364.41</v>
       </c>
       <c r="J23" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89427048214879</v>
       </c>
       <c r="K23" s="11"/>
@@ -7574,7 +7702,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>283690000</v>
       </c>
       <c r="T23" s="11">
@@ -7597,19 +7725,19 @@
         <v>2470756.05</v>
       </c>
       <c r="AC23" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>965935835.34</v>
       </c>
       <c r="AD23" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>608156210.36</v>
       </c>
       <c r="AE23" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>357779624.98</v>
       </c>
       <c r="AF23" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2730186731.14</v>
       </c>
       <c r="AG23" s="29">
@@ -7622,7 +7750,7 @@
         <v>105849021.03</v>
       </c>
       <c r="AJ23" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.400730816775733</v>
       </c>
       <c r="AK23" s="42"/>
@@ -7648,7 +7776,7 @@
         <v>2668508024.28</v>
       </c>
       <c r="BD23" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1702572188.94</v>
       </c>
       <c r="BE23" s="29">
@@ -7661,19 +7789,19 @@
         <v>33833713.16</v>
       </c>
       <c r="BH23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>296191234.74</v>
       </c>
       <c r="BI23" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>288082949.15</v>
       </c>
       <c r="BJ23" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.173966917035339</v>
       </c>
       <c r="BK23" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.16920454299759</v>
       </c>
       <c r="BL23" s="147"/>
@@ -7681,12 +7809,13 @@
       <c r="BN23" s="147"/>
       <c r="BO23" s="147"/>
       <c r="BP23" s="147"/>
-      <c r="BQ23" s="158"/>
+      <c r="BQ23" s="147"/>
       <c r="BR23" s="158"/>
-      <c r="BS23" s="159"/>
-      <c r="BT23" s="14"/>
+      <c r="BS23" s="158"/>
+      <c r="BT23" s="159"/>
+      <c r="BU23" s="14"/>
     </row>
-    <row r="24" spans="1:72">
+    <row r="24" spans="1:73">
       <c r="A24" s="12"/>
       <c r="B24" s="4">
         <v>2012</v>
@@ -7705,7 +7834,7 @@
         <v>1947986370.95</v>
       </c>
       <c r="J24" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.889672733395356</v>
       </c>
       <c r="K24" s="11"/>
@@ -7721,7 +7850,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>85000000</v>
       </c>
       <c r="T24" s="11"/>
@@ -7742,19 +7871,19 @@
         <v>3181507.07</v>
       </c>
       <c r="AC24" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>970452118.82</v>
       </c>
       <c r="AD24" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>612697504.8</v>
       </c>
       <c r="AE24" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>357754614.02</v>
       </c>
       <c r="AF24" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2524636548.51</v>
       </c>
       <c r="AG24" s="29">
@@ -7767,7 +7896,7 @@
         <v>89661621.47</v>
       </c>
       <c r="AJ24" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.323296069254686</v>
       </c>
       <c r="AK24" s="42"/>
@@ -7793,7 +7922,7 @@
         <v>2274553863.83</v>
       </c>
       <c r="BD24" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1304101745.01</v>
       </c>
       <c r="BE24" s="29">
@@ -7806,19 +7935,19 @@
         <v>40927808.72</v>
       </c>
       <c r="BH24" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>186247940</v>
       </c>
       <c r="BI24" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>158664398.29</v>
       </c>
       <c r="BJ24" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.142817031502839</v>
       </c>
       <c r="BK24" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.121665659061581</v>
       </c>
       <c r="BL24" s="148"/>
@@ -7826,14 +7955,15 @@
       <c r="BN24" s="148"/>
       <c r="BO24" s="148"/>
       <c r="BP24" s="148"/>
-      <c r="BQ24" s="160"/>
+      <c r="BQ24" s="148"/>
       <c r="BR24" s="160"/>
-      <c r="BS24" s="161"/>
-      <c r="BT24" s="15"/>
+      <c r="BS24" s="160"/>
+      <c r="BT24" s="144"/>
+      <c r="BU24" s="15"/>
     </row>
-    <row r="25" customFormat="1" spans="1:72">
+    <row r="25" customFormat="1" spans="1:73">
       <c r="A25" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="4">
         <v>2022</v>
@@ -7843,7 +7973,7 @@
         <v>20062000000</v>
       </c>
       <c r="D25" s="124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -7868,7 +7998,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>65000000</v>
       </c>
       <c r="T25" s="11"/>
@@ -7885,19 +8015,19 @@
         <v>410000000</v>
       </c>
       <c r="AC25" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>819279659.48</v>
       </c>
       <c r="AD25" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE25" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>819279659.48</v>
       </c>
       <c r="AF25" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2352313547.71</v>
       </c>
       <c r="AG25" s="29">
@@ -7910,7 +8040,7 @@
         <v>97675956.36</v>
       </c>
       <c r="AJ25" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.566194962961713</v>
       </c>
       <c r="AK25" s="42"/>
@@ -7932,11 +8062,11 @@
       <c r="BA25" s="55"/>
       <c r="BB25" s="55"/>
       <c r="BC25" s="56">
-        <f t="shared" ref="BC25:BC56" si="28">H25+S25</f>
+        <f t="shared" ref="BC25:BC56" si="29">H25+S25</f>
         <v>2418022936.1</v>
       </c>
       <c r="BD25" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1598743276.62</v>
       </c>
       <c r="BE25" s="29">
@@ -7949,19 +8079,19 @@
         <v>-8308696.86</v>
       </c>
       <c r="BH25" s="11">
-        <f t="shared" si="24"/>
-        <v>392038984.84</v>
-      </c>
-      <c r="BI25" s="11">
         <f t="shared" si="25"/>
         <v>392038984.84</v>
       </c>
+      <c r="BI25" s="11">
+        <f t="shared" si="26"/>
+        <v>392038984.84</v>
+      </c>
       <c r="BJ25" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.245216971713453</v>
       </c>
       <c r="BK25" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.245216971713453</v>
       </c>
       <c r="BL25" s="146"/>
@@ -7969,12 +8099,13 @@
       <c r="BN25" s="146"/>
       <c r="BO25" s="146"/>
       <c r="BP25" s="146"/>
-      <c r="BQ25" s="156"/>
-      <c r="BR25" s="156"/>
+      <c r="BQ25" s="146"/>
+      <c r="BR25" s="157"/>
       <c r="BS25" s="157"/>
-      <c r="BT25" s="13"/>
+      <c r="BT25" s="142"/>
+      <c r="BU25" s="13"/>
     </row>
-    <row r="26" customFormat="1" spans="1:72">
+    <row r="26" customFormat="1" spans="1:73">
       <c r="A26" s="14"/>
       <c r="B26" s="4">
         <v>2021</v>
@@ -7984,7 +8115,7 @@
         <v>19235000000</v>
       </c>
       <c r="D26" s="124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -8007,7 +8138,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T26" s="11"/>
@@ -8024,19 +8155,19 @@
         <v>160000000</v>
       </c>
       <c r="AC26" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>356955347.02</v>
       </c>
       <c r="AD26" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE26" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>356955347.02</v>
       </c>
       <c r="AF26" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2040967310.17</v>
       </c>
       <c r="AG26" s="29">
@@ -8049,7 +8180,7 @@
         <v>103322955.28</v>
       </c>
       <c r="AJ26" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.602622907619012</v>
       </c>
       <c r="AK26" s="42"/>
@@ -8071,11 +8202,11 @@
       <c r="BA26" s="55"/>
       <c r="BB26" s="55"/>
       <c r="BC26" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2074320828.6</v>
       </c>
       <c r="BD26" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1717365481.58</v>
       </c>
       <c r="BE26" s="29">
@@ -8088,19 +8219,19 @@
         <v>-2704183.35</v>
       </c>
       <c r="BH26" s="11">
-        <f t="shared" si="24"/>
-        <v>267288801.49</v>
-      </c>
-      <c r="BI26" s="11">
         <f t="shared" si="25"/>
         <v>267288801.49</v>
       </c>
+      <c r="BI26" s="11">
+        <f t="shared" si="26"/>
+        <v>267288801.49</v>
+      </c>
       <c r="BJ26" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.155638857515694</v>
       </c>
       <c r="BK26" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.155638857515694</v>
       </c>
       <c r="BL26" s="147"/>
@@ -8108,12 +8239,13 @@
       <c r="BN26" s="147"/>
       <c r="BO26" s="147"/>
       <c r="BP26" s="147"/>
-      <c r="BQ26" s="158"/>
+      <c r="BQ26" s="147"/>
       <c r="BR26" s="158"/>
-      <c r="BS26" s="159"/>
-      <c r="BT26" s="14"/>
+      <c r="BS26" s="158"/>
+      <c r="BT26" s="159"/>
+      <c r="BU26" s="14"/>
     </row>
-    <row r="27" customFormat="1" spans="1:72">
+    <row r="27" customFormat="1" spans="1:73">
       <c r="A27" s="14"/>
       <c r="B27" s="4">
         <v>2020</v>
@@ -8123,7 +8255,7 @@
         <v>24883000000</v>
       </c>
       <c r="D27" s="124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -8144,7 +8276,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T27" s="11"/>
@@ -8161,19 +8293,19 @@
         <v>390000000</v>
       </c>
       <c r="AC27" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>507463290.74</v>
       </c>
       <c r="AD27" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE27" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>507463290.74</v>
       </c>
       <c r="AF27" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1678031259.74</v>
       </c>
       <c r="AG27" s="29">
@@ -8186,7 +8318,7 @@
         <v>105258498.85</v>
       </c>
       <c r="AJ27" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.639036847559175</v>
       </c>
       <c r="AK27" s="42"/>
@@ -8208,11 +8340,11 @@
       <c r="BA27" s="55"/>
       <c r="BB27" s="55"/>
       <c r="BC27" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1897911349</v>
       </c>
       <c r="BD27" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1390448058.26</v>
       </c>
       <c r="BE27" s="29">
@@ -8225,19 +8357,19 @@
         <v>-3216073.21</v>
       </c>
       <c r="BH27" s="11">
-        <f t="shared" si="24"/>
-        <v>258698190.99</v>
-      </c>
-      <c r="BI27" s="11">
         <f t="shared" si="25"/>
         <v>258698190.99</v>
       </c>
+      <c r="BI27" s="11">
+        <f t="shared" si="26"/>
+        <v>258698190.99</v>
+      </c>
       <c r="BJ27" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.186053833117458</v>
       </c>
       <c r="BK27" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.186053833117458</v>
       </c>
       <c r="BL27" s="147"/>
@@ -8245,12 +8377,13 @@
       <c r="BN27" s="147"/>
       <c r="BO27" s="147"/>
       <c r="BP27" s="147"/>
-      <c r="BQ27" s="158"/>
+      <c r="BQ27" s="147"/>
       <c r="BR27" s="158"/>
-      <c r="BS27" s="159"/>
-      <c r="BT27" s="14"/>
+      <c r="BS27" s="158"/>
+      <c r="BT27" s="159"/>
+      <c r="BU27" s="14"/>
     </row>
-    <row r="28" customFormat="1" spans="1:72">
+    <row r="28" customFormat="1" spans="1:73">
       <c r="A28" s="14"/>
       <c r="B28" s="4">
         <v>2019</v>
@@ -8260,7 +8393,7 @@
         <v>9904000000</v>
       </c>
       <c r="D28" s="124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -8283,7 +8416,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>158004865.85</v>
       </c>
       <c r="T28" s="11"/>
@@ -8300,19 +8433,19 @@
         <v>343000000</v>
       </c>
       <c r="AC28" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>429062661.58</v>
       </c>
       <c r="AD28" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE28" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>429062661.58</v>
       </c>
       <c r="AF28" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1626508947.5</v>
       </c>
       <c r="AG28" s="29">
@@ -8325,7 +8458,7 @@
         <v>121391437.7</v>
       </c>
       <c r="AJ28" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.622219791920327</v>
       </c>
       <c r="AK28" s="42"/>
@@ -8347,11 +8480,11 @@
       <c r="BA28" s="55"/>
       <c r="BB28" s="55"/>
       <c r="BC28" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1750536660.85</v>
       </c>
       <c r="BD28" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1321473999.27</v>
       </c>
       <c r="BE28" s="29">
@@ -8364,19 +8497,19 @@
         <v>-7515207.85</v>
       </c>
       <c r="BH28" s="11">
-        <f t="shared" si="24"/>
-        <v>224320818.58</v>
-      </c>
-      <c r="BI28" s="11">
         <f t="shared" si="25"/>
         <v>224320818.58</v>
       </c>
+      <c r="BI28" s="11">
+        <f t="shared" si="26"/>
+        <v>224320818.58</v>
+      </c>
       <c r="BJ28" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.169750459489871</v>
       </c>
       <c r="BK28" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.169750459489871</v>
       </c>
       <c r="BL28" s="147"/>
@@ -8384,12 +8517,13 @@
       <c r="BN28" s="147"/>
       <c r="BO28" s="147"/>
       <c r="BP28" s="147"/>
-      <c r="BQ28" s="158"/>
+      <c r="BQ28" s="147"/>
       <c r="BR28" s="158"/>
-      <c r="BS28" s="159"/>
-      <c r="BT28" s="14"/>
+      <c r="BS28" s="158"/>
+      <c r="BT28" s="159"/>
+      <c r="BU28" s="14"/>
     </row>
-    <row r="29" customFormat="1" spans="1:72">
+    <row r="29" customFormat="1" spans="1:73">
       <c r="A29" s="14"/>
       <c r="B29" s="4">
         <v>2018</v>
@@ -8399,7 +8533,7 @@
         <v>5017000000</v>
       </c>
       <c r="D29" s="124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -8424,7 +8558,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>386525248.65</v>
       </c>
       <c r="T29" s="11"/>
@@ -8439,19 +8573,19 @@
       <c r="AA29" s="29"/>
       <c r="AB29" s="29"/>
       <c r="AC29" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>454485084.24</v>
       </c>
       <c r="AD29" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE29" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>454485084.24</v>
       </c>
       <c r="AF29" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1476658354.72</v>
       </c>
       <c r="AG29" s="29">
@@ -8464,7 +8598,7 @@
         <v>52826585.01</v>
       </c>
       <c r="AJ29" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.523308707637066</v>
       </c>
       <c r="AK29" s="42"/>
@@ -8486,11 +8620,11 @@
       <c r="BA29" s="55"/>
       <c r="BB29" s="55"/>
       <c r="BC29" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1693034035.01</v>
       </c>
       <c r="BD29" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1238548950.77</v>
       </c>
       <c r="BE29" s="29">
@@ -8503,19 +8637,19 @@
         <v>1697152.63</v>
       </c>
       <c r="BH29" s="11">
-        <f t="shared" si="24"/>
-        <v>286872424.84</v>
-      </c>
-      <c r="BI29" s="11">
         <f t="shared" si="25"/>
         <v>286872424.84</v>
       </c>
+      <c r="BI29" s="11">
+        <f t="shared" si="26"/>
+        <v>286872424.84</v>
+      </c>
       <c r="BJ29" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.231619771395917</v>
       </c>
       <c r="BK29" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.231619771395917</v>
       </c>
       <c r="BL29" s="147"/>
@@ -8523,12 +8657,13 @@
       <c r="BN29" s="147"/>
       <c r="BO29" s="147"/>
       <c r="BP29" s="147"/>
-      <c r="BQ29" s="158"/>
+      <c r="BQ29" s="147"/>
       <c r="BR29" s="158"/>
-      <c r="BS29" s="159"/>
-      <c r="BT29" s="14"/>
+      <c r="BS29" s="158"/>
+      <c r="BT29" s="159"/>
+      <c r="BU29" s="14"/>
     </row>
-    <row r="30" customFormat="1" spans="1:72">
+    <row r="30" customFormat="1" spans="1:73">
       <c r="A30" s="14"/>
       <c r="B30" s="4">
         <v>2017</v>
@@ -8538,7 +8673,7 @@
         <v>5864000000</v>
       </c>
       <c r="D30" s="124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -8559,7 +8694,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T30" s="11"/>
@@ -8574,19 +8709,19 @@
       <c r="AA30" s="29"/>
       <c r="AB30" s="29"/>
       <c r="AC30" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>80908967.56</v>
       </c>
       <c r="AD30" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE30" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>80908967.56</v>
       </c>
       <c r="AF30" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1115217863.82</v>
       </c>
       <c r="AG30" s="29">
@@ -8599,7 +8734,7 @@
         <v>57617282.2</v>
       </c>
       <c r="AJ30" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.529177972686467</v>
       </c>
       <c r="AK30" s="42"/>
@@ -8621,11 +8756,11 @@
       <c r="BA30" s="55"/>
       <c r="BB30" s="55"/>
       <c r="BC30" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1062987000.38</v>
       </c>
       <c r="BD30" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>982078032.82</v>
       </c>
       <c r="BE30" s="29">
@@ -8638,19 +8773,19 @@
         <v>1193171.8</v>
       </c>
       <c r="BH30" s="11">
-        <f t="shared" si="24"/>
-        <v>170390016.96</v>
-      </c>
-      <c r="BI30" s="11">
         <f t="shared" si="25"/>
         <v>170390016.96</v>
       </c>
+      <c r="BI30" s="11">
+        <f t="shared" si="26"/>
+        <v>170390016.96</v>
+      </c>
       <c r="BJ30" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.173499468744588</v>
       </c>
       <c r="BK30" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.173499468744588</v>
       </c>
       <c r="BL30" s="147"/>
@@ -8658,12 +8793,13 @@
       <c r="BN30" s="147"/>
       <c r="BO30" s="147"/>
       <c r="BP30" s="147"/>
-      <c r="BQ30" s="158"/>
+      <c r="BQ30" s="147"/>
       <c r="BR30" s="158"/>
-      <c r="BS30" s="159"/>
-      <c r="BT30" s="14"/>
+      <c r="BS30" s="158"/>
+      <c r="BT30" s="159"/>
+      <c r="BU30" s="14"/>
     </row>
-    <row r="31" customFormat="1" spans="1:72">
+    <row r="31" customFormat="1" spans="1:73">
       <c r="A31" s="14"/>
       <c r="B31" s="4">
         <v>2016</v>
@@ -8673,7 +8809,7 @@
         <v>7195000000</v>
       </c>
       <c r="D31" s="124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -8694,7 +8830,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T31" s="11"/>
@@ -8709,19 +8845,19 @@
       <c r="AA31" s="29"/>
       <c r="AB31" s="29"/>
       <c r="AC31" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>92047470.8</v>
       </c>
       <c r="AD31" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE31" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>92047470.8</v>
       </c>
       <c r="AF31" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>934608332.91</v>
       </c>
       <c r="AG31" s="29">
@@ -8734,7 +8870,7 @@
         <v>52537975.61</v>
       </c>
       <c r="AJ31" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.528576548629566</v>
       </c>
       <c r="AK31" s="42"/>
@@ -8756,11 +8892,11 @@
       <c r="BA31" s="55"/>
       <c r="BB31" s="55"/>
       <c r="BC31" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>890420754.13</v>
       </c>
       <c r="BD31" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>798373283.33</v>
       </c>
       <c r="BE31" s="29">
@@ -8773,19 +8909,19 @@
         <v>-744236.12</v>
       </c>
       <c r="BH31" s="11">
-        <f t="shared" si="24"/>
-        <v>109060907.95</v>
-      </c>
-      <c r="BI31" s="11">
         <f t="shared" si="25"/>
         <v>109060907.95</v>
       </c>
+      <c r="BI31" s="11">
+        <f t="shared" si="26"/>
+        <v>109060907.95</v>
+      </c>
       <c r="BJ31" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.136603904748802</v>
       </c>
       <c r="BK31" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.136603904748802</v>
       </c>
       <c r="BL31" s="147"/>
@@ -8793,12 +8929,13 @@
       <c r="BN31" s="147"/>
       <c r="BO31" s="147"/>
       <c r="BP31" s="147"/>
-      <c r="BQ31" s="158"/>
+      <c r="BQ31" s="147"/>
       <c r="BR31" s="158"/>
-      <c r="BS31" s="159"/>
-      <c r="BT31" s="14"/>
+      <c r="BS31" s="158"/>
+      <c r="BT31" s="159"/>
+      <c r="BU31" s="14"/>
     </row>
-    <row r="32" customFormat="1" spans="1:72">
+    <row r="32" customFormat="1" spans="1:73">
       <c r="A32" s="14"/>
       <c r="B32" s="4">
         <v>2015</v>
@@ -8826,7 +8963,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>134500000</v>
       </c>
       <c r="T32" s="11"/>
@@ -8841,19 +8978,19 @@
       <c r="AA32" s="29"/>
       <c r="AB32" s="29"/>
       <c r="AC32" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48418130.2</v>
       </c>
       <c r="AD32" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE32" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>48418130.2</v>
       </c>
       <c r="AF32" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>675704475.98</v>
       </c>
       <c r="AG32" s="29">
@@ -8866,7 +9003,7 @@
         <v>45529574.87</v>
       </c>
       <c r="AJ32" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.654658259320297</v>
       </c>
       <c r="AK32" s="42"/>
@@ -8888,11 +9025,11 @@
       <c r="BA32" s="55"/>
       <c r="BB32" s="55"/>
       <c r="BC32" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>601998088.49</v>
       </c>
       <c r="BD32" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>553579958.29</v>
       </c>
       <c r="BE32" s="29">
@@ -8905,19 +9042,19 @@
         <v>7181535.02</v>
       </c>
       <c r="BH32" s="11">
-        <f t="shared" si="24"/>
-        <v>85618708.45</v>
-      </c>
-      <c r="BI32" s="11">
         <f t="shared" si="25"/>
         <v>85618708.45</v>
       </c>
+      <c r="BI32" s="11">
+        <f t="shared" si="26"/>
+        <v>85618708.45</v>
+      </c>
       <c r="BJ32" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.15466367083533</v>
       </c>
       <c r="BK32" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.15466367083533</v>
       </c>
       <c r="BL32" s="147"/>
@@ -8925,12 +9062,13 @@
       <c r="BN32" s="147"/>
       <c r="BO32" s="147"/>
       <c r="BP32" s="147"/>
-      <c r="BQ32" s="158"/>
+      <c r="BQ32" s="147"/>
       <c r="BR32" s="158"/>
-      <c r="BS32" s="159"/>
-      <c r="BT32" s="14"/>
+      <c r="BS32" s="158"/>
+      <c r="BT32" s="159"/>
+      <c r="BU32" s="14"/>
     </row>
-    <row r="33" customFormat="1" spans="1:72">
+    <row r="33" customFormat="1" spans="1:73">
       <c r="A33" s="14"/>
       <c r="B33" s="4">
         <v>2014</v>
@@ -8952,7 +9090,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T33" s="11"/>
@@ -8965,26 +9103,26 @@
       <c r="AA33" s="29"/>
       <c r="AB33" s="29"/>
       <c r="AC33" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="29">
+      <c r="AD33" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE33" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF33" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG33" s="29"/>
       <c r="AH33" s="29"/>
       <c r="AI33" s="29"/>
       <c r="AJ33" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK33" s="42"/>
@@ -9006,30 +9144,30 @@
       <c r="BA33" s="55"/>
       <c r="BB33" s="55"/>
       <c r="BC33" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD33" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE33" s="29"/>
       <c r="BF33" s="29"/>
       <c r="BG33" s="29"/>
       <c r="BH33" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI33" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI33" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ33" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK33" s="54" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL33" s="147"/>
@@ -9037,12 +9175,13 @@
       <c r="BN33" s="147"/>
       <c r="BO33" s="147"/>
       <c r="BP33" s="147"/>
-      <c r="BQ33" s="158"/>
+      <c r="BQ33" s="147"/>
       <c r="BR33" s="158"/>
-      <c r="BS33" s="159"/>
-      <c r="BT33" s="14"/>
+      <c r="BS33" s="158"/>
+      <c r="BT33" s="159"/>
+      <c r="BU33" s="14"/>
     </row>
-    <row r="34" customFormat="1" spans="1:72">
+    <row r="34" customFormat="1" spans="1:73">
       <c r="A34" s="14"/>
       <c r="B34" s="4">
         <v>2013</v>
@@ -9064,7 +9203,7 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T34" s="11"/>
@@ -9077,26 +9216,26 @@
       <c r="AA34" s="29"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="29">
+      <c r="AD34" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE34" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF34" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG34" s="29"/>
       <c r="AH34" s="29"/>
       <c r="AI34" s="29"/>
       <c r="AJ34" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK34" s="42"/>
@@ -9118,30 +9257,30 @@
       <c r="BA34" s="55"/>
       <c r="BB34" s="55"/>
       <c r="BC34" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD34" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE34" s="29"/>
       <c r="BF34" s="29"/>
       <c r="BG34" s="29"/>
       <c r="BH34" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI34" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI34" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ34" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK34" s="54" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL34" s="147"/>
@@ -9149,12 +9288,13 @@
       <c r="BN34" s="147"/>
       <c r="BO34" s="147"/>
       <c r="BP34" s="147"/>
-      <c r="BQ34" s="158"/>
+      <c r="BQ34" s="147"/>
       <c r="BR34" s="158"/>
-      <c r="BS34" s="159"/>
-      <c r="BT34" s="14"/>
+      <c r="BS34" s="158"/>
+      <c r="BT34" s="159"/>
+      <c r="BU34" s="14"/>
     </row>
-    <row r="35" customFormat="1" spans="1:72">
+    <row r="35" customFormat="1" spans="1:73">
       <c r="A35" s="15"/>
       <c r="B35" s="4">
         <v>2012</v>
@@ -9176,7 +9316,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T35" s="11"/>
@@ -9189,26 +9329,26 @@
       <c r="AA35" s="29"/>
       <c r="AB35" s="29"/>
       <c r="AC35" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="29">
+      <c r="AD35" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE35" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF35" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
       <c r="AJ35" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK35" s="42"/>
@@ -9230,30 +9370,30 @@
       <c r="BA35" s="55"/>
       <c r="BB35" s="55"/>
       <c r="BC35" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD35" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE35" s="29"/>
       <c r="BF35" s="29"/>
       <c r="BG35" s="29"/>
       <c r="BH35" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI35" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI35" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ35" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK35" s="54" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BL35" s="148"/>
@@ -9261,14 +9401,15 @@
       <c r="BN35" s="148"/>
       <c r="BO35" s="148"/>
       <c r="BP35" s="148"/>
-      <c r="BQ35" s="160"/>
+      <c r="BQ35" s="148"/>
       <c r="BR35" s="160"/>
-      <c r="BS35" s="161"/>
-      <c r="BT35" s="15"/>
+      <c r="BS35" s="160"/>
+      <c r="BT35" s="144"/>
+      <c r="BU35" s="15"/>
     </row>
-    <row r="36" customFormat="1" spans="1:72">
+    <row r="36" customFormat="1" spans="1:73">
       <c r="A36" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4">
         <v>2022</v>
@@ -9278,7 +9419,7 @@
         <v>20969000000</v>
       </c>
       <c r="D36" s="124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -9292,7 +9433,7 @@
         <v>4020108495.73</v>
       </c>
       <c r="J36" s="42">
-        <f t="shared" ref="J36:J46" si="29">I36/H36</f>
+        <f t="shared" ref="J36:J46" si="30">I36/H36</f>
         <v>0.998833997875402</v>
       </c>
       <c r="K36" s="11"/>
@@ -9304,7 +9445,7 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T36" s="11"/>
@@ -9325,19 +9466,19 @@
         <v>2500000000</v>
       </c>
       <c r="AC36" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3447507683.53</v>
       </c>
       <c r="AD36" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>497970217.7</v>
       </c>
       <c r="AE36" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2949537465.83</v>
       </c>
       <c r="AF36" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1374220467.78</v>
       </c>
       <c r="AG36" s="29">
@@ -9350,7 +9491,7 @@
         <v>45828226.9</v>
       </c>
       <c r="AJ36" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.771623773886154</v>
       </c>
       <c r="AK36" s="42"/>
@@ -9372,11 +9513,11 @@
       <c r="BA36" s="55"/>
       <c r="BB36" s="55"/>
       <c r="BC36" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4024801422.74</v>
       </c>
       <c r="BD36" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>577293739.21</v>
       </c>
       <c r="BE36" s="29">
@@ -9389,19 +9530,19 @@
         <v>-18204490.44</v>
       </c>
       <c r="BH36" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>385594511.43</v>
       </c>
       <c r="BI36" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>387614661.79</v>
       </c>
       <c r="BJ36" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.667934684269517</v>
       </c>
       <c r="BK36" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.671434029962689</v>
       </c>
       <c r="BL36" s="146"/>
@@ -9409,12 +9550,13 @@
       <c r="BN36" s="146"/>
       <c r="BO36" s="146"/>
       <c r="BP36" s="146"/>
-      <c r="BQ36" s="156"/>
-      <c r="BR36" s="156"/>
+      <c r="BQ36" s="146"/>
+      <c r="BR36" s="157"/>
       <c r="BS36" s="157"/>
-      <c r="BT36" s="13"/>
+      <c r="BT36" s="142"/>
+      <c r="BU36" s="13"/>
     </row>
-    <row r="37" customFormat="1" spans="1:72">
+    <row r="37" customFormat="1" spans="1:73">
       <c r="A37" s="4"/>
       <c r="B37" s="4">
         <v>2021</v>
@@ -9424,7 +9566,7 @@
         <v>20220000000</v>
       </c>
       <c r="D37" s="124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -9438,7 +9580,7 @@
         <v>3804291456.8</v>
       </c>
       <c r="J37" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.00005612015096</v>
       </c>
       <c r="K37" s="11"/>
@@ -9450,7 +9592,7 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T37" s="11"/>
@@ -9471,19 +9613,19 @@
         <v>1600000000</v>
       </c>
       <c r="AC37" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3126739961.97</v>
       </c>
       <c r="AD37" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>182036531.57</v>
       </c>
       <c r="AE37" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2944703430.4</v>
       </c>
       <c r="AF37" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1103741572.88</v>
       </c>
       <c r="AG37" s="29">
@@ -9496,7 +9638,7 @@
         <v>44958296.82</v>
       </c>
       <c r="AJ37" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.685062466413239</v>
       </c>
       <c r="AK37" s="42"/>
@@ -9518,11 +9660,11 @@
       <c r="BA37" s="55"/>
       <c r="BB37" s="55"/>
       <c r="BC37" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3804077971.37</v>
       </c>
       <c r="BD37" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>677338009.4</v>
       </c>
       <c r="BE37" s="29">
@@ -9535,19 +9677,19 @@
         <v>-34723295.56</v>
       </c>
       <c r="BH37" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>181404990.04</v>
       </c>
       <c r="BI37" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>154325363.66</v>
       </c>
       <c r="BJ37" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.267820478878326</v>
       </c>
       <c r="BK37" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.227840991526084</v>
       </c>
       <c r="BL37" s="147"/>
@@ -9555,12 +9697,13 @@
       <c r="BN37" s="147"/>
       <c r="BO37" s="147"/>
       <c r="BP37" s="147"/>
-      <c r="BQ37" s="158"/>
+      <c r="BQ37" s="147"/>
       <c r="BR37" s="158"/>
-      <c r="BS37" s="159"/>
-      <c r="BT37" s="14"/>
+      <c r="BS37" s="158"/>
+      <c r="BT37" s="159"/>
+      <c r="BU37" s="14"/>
     </row>
-    <row r="38" customFormat="1" spans="1:72">
+    <row r="38" customFormat="1" spans="1:73">
       <c r="A38" s="4"/>
       <c r="B38" s="4">
         <v>2020</v>
@@ -9570,7 +9713,7 @@
         <v>51848000000</v>
       </c>
       <c r="D38" s="124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -9584,7 +9727,7 @@
         <v>3729658162.74</v>
       </c>
       <c r="J38" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K38" s="11"/>
@@ -9596,7 +9739,7 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T38" s="11"/>
@@ -9613,19 +9756,19 @@
         <v>650000000</v>
       </c>
       <c r="AC38" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3378845771.53</v>
       </c>
       <c r="AD38" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE38" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3378845771.53</v>
       </c>
       <c r="AF38" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>911139124.56</v>
       </c>
       <c r="AG38" s="29">
@@ -9638,7 +9781,7 @@
         <v>44707222.63</v>
       </c>
       <c r="AJ38" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.606626352234535</v>
       </c>
       <c r="AK38" s="42"/>
@@ -9660,11 +9803,11 @@
       <c r="BA38" s="55"/>
       <c r="BB38" s="55"/>
       <c r="BC38" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3729658162.74</v>
       </c>
       <c r="BD38" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>350812391.21</v>
       </c>
       <c r="BE38" s="29">
@@ -9677,19 +9820,19 @@
         <v>-15207763.94</v>
       </c>
       <c r="BH38" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>412846264.58</v>
       </c>
       <c r="BI38" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>391718237.67</v>
       </c>
       <c r="BJ38" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.17682919681382</v>
       </c>
       <c r="BK38" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.1166031972785</v>
       </c>
       <c r="BL38" s="147"/>
@@ -9697,12 +9840,13 @@
       <c r="BN38" s="147"/>
       <c r="BO38" s="147"/>
       <c r="BP38" s="147"/>
-      <c r="BQ38" s="158"/>
+      <c r="BQ38" s="147"/>
       <c r="BR38" s="158"/>
-      <c r="BS38" s="159"/>
-      <c r="BT38" s="14"/>
+      <c r="BS38" s="158"/>
+      <c r="BT38" s="159"/>
+      <c r="BU38" s="14"/>
     </row>
-    <row r="39" customFormat="1" spans="1:72">
+    <row r="39" customFormat="1" spans="1:73">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>2019</v>
@@ -9712,7 +9856,7 @@
         <v>18551000000</v>
       </c>
       <c r="D39" s="124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -9726,7 +9870,7 @@
         <v>1841916395.05</v>
       </c>
       <c r="J39" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K39" s="11"/>
@@ -9740,7 +9884,7 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1500000</v>
       </c>
       <c r="T39" s="11"/>
@@ -9757,19 +9901,19 @@
         <v>940000000</v>
       </c>
       <c r="AC39" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1616296162.79</v>
       </c>
       <c r="AD39" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE39" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1616296162.79</v>
       </c>
       <c r="AF39" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>526017237.61</v>
       </c>
       <c r="AG39" s="29">
@@ -9780,7 +9924,7 @@
         <v>34248482.92</v>
       </c>
       <c r="AJ39" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.753090462909326</v>
       </c>
       <c r="AK39" s="42"/>
@@ -9802,11 +9946,11 @@
       <c r="BA39" s="55"/>
       <c r="BB39" s="55"/>
       <c r="BC39" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1843416395.05</v>
       </c>
       <c r="BD39" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>227120232.26</v>
       </c>
       <c r="BE39" s="29">
@@ -9819,19 +9963,19 @@
         <v>-4547297.69</v>
       </c>
       <c r="BH39" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>341878778.82</v>
       </c>
       <c r="BI39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>329171900.79</v>
       </c>
       <c r="BJ39" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.50527663439789</v>
       </c>
       <c r="BK39" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.44932883131774</v>
       </c>
       <c r="BL39" s="147"/>
@@ -9839,19 +9983,20 @@
       <c r="BN39" s="147"/>
       <c r="BO39" s="147"/>
       <c r="BP39" s="147"/>
-      <c r="BQ39" s="158"/>
+      <c r="BQ39" s="147"/>
       <c r="BR39" s="158"/>
-      <c r="BS39" s="159"/>
-      <c r="BT39" s="14"/>
+      <c r="BS39" s="158"/>
+      <c r="BT39" s="159"/>
+      <c r="BU39" s="14"/>
     </row>
-    <row r="40" customFormat="1" spans="1:72">
+    <row r="40" customFormat="1" spans="1:73">
       <c r="A40" s="4"/>
       <c r="B40" s="4">
         <v>2018</v>
       </c>
       <c r="C40" s="124"/>
       <c r="D40" s="124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -9865,7 +10010,7 @@
         <v>1138264322.8</v>
       </c>
       <c r="J40" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K40" s="11"/>
@@ -9879,7 +10024,7 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1250000</v>
       </c>
       <c r="T40" s="11"/>
@@ -9894,19 +10039,19 @@
       <c r="AA40" s="29"/>
       <c r="AB40" s="29"/>
       <c r="AC40" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>354894241.72</v>
       </c>
       <c r="AD40" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE40" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>354894241.72</v>
       </c>
       <c r="AF40" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1031925467.92</v>
       </c>
       <c r="AG40" s="29">
@@ -9917,7 +10062,7 @@
         <v>34876914.15</v>
       </c>
       <c r="AJ40" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.370325040916255</v>
       </c>
       <c r="AK40" s="42"/>
@@ -9939,11 +10084,11 @@
       <c r="BA40" s="55"/>
       <c r="BB40" s="55"/>
       <c r="BC40" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1139514322.8</v>
       </c>
       <c r="BD40" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>784620081.08</v>
       </c>
       <c r="BE40" s="29">
@@ -9956,19 +10101,19 @@
         <v>-1795071.34</v>
       </c>
       <c r="BH40" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>308919257.15</v>
       </c>
       <c r="BI40" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>297785696.92</v>
       </c>
       <c r="BJ40" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.393718265182283</v>
       </c>
       <c r="BK40" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.379528518452025</v>
       </c>
       <c r="BL40" s="147"/>
@@ -9976,19 +10121,20 @@
       <c r="BN40" s="147"/>
       <c r="BO40" s="147"/>
       <c r="BP40" s="147"/>
-      <c r="BQ40" s="158"/>
+      <c r="BQ40" s="147"/>
       <c r="BR40" s="158"/>
-      <c r="BS40" s="159"/>
-      <c r="BT40" s="14"/>
+      <c r="BS40" s="158"/>
+      <c r="BT40" s="159"/>
+      <c r="BU40" s="14"/>
     </row>
-    <row r="41" customFormat="1" spans="1:72">
+    <row r="41" customFormat="1" spans="1:73">
       <c r="A41" s="4"/>
       <c r="B41" s="4">
         <v>2017</v>
       </c>
       <c r="C41" s="124"/>
       <c r="D41" s="124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -10002,7 +10148,7 @@
         <v>931150919.19</v>
       </c>
       <c r="J41" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K41" s="11"/>
@@ -10016,7 +10162,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>750000</v>
       </c>
       <c r="T41" s="11"/>
@@ -10031,19 +10177,19 @@
       <c r="AA41" s="29"/>
       <c r="AB41" s="29"/>
       <c r="AC41" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>244636371.41</v>
       </c>
       <c r="AD41" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE41" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>244636371.41</v>
       </c>
       <c r="AF41" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>948011946.09</v>
       </c>
       <c r="AG41" s="29">
@@ -10054,7 +10200,7 @@
         <v>35079098.02</v>
       </c>
       <c r="AJ41" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.405073219207665</v>
       </c>
       <c r="AK41" s="42"/>
@@ -10076,11 +10222,11 @@
       <c r="BA41" s="55"/>
       <c r="BB41" s="55"/>
       <c r="BC41" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>931900919.19</v>
       </c>
       <c r="BD41" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>687264547.78</v>
       </c>
       <c r="BE41" s="29">
@@ -10093,19 +10239,19 @@
         <v>-2099574.4</v>
       </c>
       <c r="BH41" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>212810780.84</v>
       </c>
       <c r="BI41" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>200472256.38</v>
       </c>
       <c r="BJ41" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.309649001286944</v>
       </c>
       <c r="BK41" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.291695908115099</v>
       </c>
       <c r="BL41" s="147"/>
@@ -10113,19 +10259,20 @@
       <c r="BN41" s="147"/>
       <c r="BO41" s="147"/>
       <c r="BP41" s="147"/>
-      <c r="BQ41" s="158"/>
+      <c r="BQ41" s="147"/>
       <c r="BR41" s="158"/>
-      <c r="BS41" s="159"/>
-      <c r="BT41" s="14"/>
+      <c r="BS41" s="158"/>
+      <c r="BT41" s="159"/>
+      <c r="BU41" s="14"/>
     </row>
-    <row r="42" customFormat="1" spans="1:72">
+    <row r="42" customFormat="1" spans="1:73">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
         <v>2016</v>
       </c>
       <c r="C42" s="124"/>
       <c r="D42" s="124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -10139,7 +10286,7 @@
         <v>945560809.3</v>
       </c>
       <c r="J42" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="K42" s="11"/>
@@ -10151,7 +10298,7 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T42" s="11"/>
@@ -10166,19 +10313,19 @@
       <c r="AA42" s="29"/>
       <c r="AB42" s="29"/>
       <c r="AC42" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>312085269.45</v>
       </c>
       <c r="AD42" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE42" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>312085269.45</v>
       </c>
       <c r="AF42" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>839421508.88</v>
       </c>
       <c r="AG42" s="29">
@@ -10191,7 +10338,7 @@
         <v>36778441.29</v>
       </c>
       <c r="AJ42" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.473457955241429</v>
       </c>
       <c r="AK42" s="42"/>
@@ -10213,11 +10360,11 @@
       <c r="BA42" s="55"/>
       <c r="BB42" s="55"/>
       <c r="BC42" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>945560809.3</v>
       </c>
       <c r="BD42" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>633475539.85</v>
       </c>
       <c r="BE42" s="29">
@@ -10230,19 +10377,19 @@
         <v>-1677127.31</v>
       </c>
       <c r="BH42" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>235508790.64</v>
       </c>
       <c r="BI42" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>201785518.9</v>
       </c>
       <c r="BJ42" s="42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.371772508684023</v>
       </c>
       <c r="BK42" s="54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.318537190793161</v>
       </c>
       <c r="BL42" s="147"/>
@@ -10250,12 +10397,13 @@
       <c r="BN42" s="147"/>
       <c r="BO42" s="147"/>
       <c r="BP42" s="147"/>
-      <c r="BQ42" s="158"/>
+      <c r="BQ42" s="147"/>
       <c r="BR42" s="158"/>
-      <c r="BS42" s="159"/>
-      <c r="BT42" s="14"/>
+      <c r="BS42" s="158"/>
+      <c r="BT42" s="159"/>
+      <c r="BU42" s="14"/>
     </row>
-    <row r="43" customFormat="1" spans="1:72">
+    <row r="43" customFormat="1" spans="1:73">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
         <v>2015</v>
@@ -10268,7 +10416,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="42" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="11"/>
@@ -10280,7 +10428,7 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T43" s="11"/>
@@ -10293,26 +10441,26 @@
       <c r="AA43" s="29"/>
       <c r="AB43" s="29"/>
       <c r="AC43" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="29">
+      <c r="AD43" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE43" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF43" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG43" s="29"/>
       <c r="AH43" s="29"/>
       <c r="AI43" s="29"/>
       <c r="AJ43" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK43" s="42"/>
@@ -10334,26 +10482,26 @@
       <c r="BA43" s="55"/>
       <c r="BB43" s="55"/>
       <c r="BC43" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD43" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE43" s="29"/>
       <c r="BF43" s="29"/>
       <c r="BG43" s="29"/>
       <c r="BH43" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI43" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ43" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK43" s="54"/>
@@ -10362,12 +10510,13 @@
       <c r="BN43" s="147"/>
       <c r="BO43" s="147"/>
       <c r="BP43" s="147"/>
-      <c r="BQ43" s="158"/>
+      <c r="BQ43" s="147"/>
       <c r="BR43" s="158"/>
-      <c r="BS43" s="159"/>
-      <c r="BT43" s="14"/>
+      <c r="BS43" s="158"/>
+      <c r="BT43" s="159"/>
+      <c r="BU43" s="14"/>
     </row>
-    <row r="44" customFormat="1" spans="1:72">
+    <row r="44" customFormat="1" spans="1:73">
       <c r="A44" s="4"/>
       <c r="B44" s="4">
         <v>2014</v>
@@ -10380,7 +10529,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="42" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="11"/>
@@ -10392,7 +10541,7 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T44" s="11"/>
@@ -10405,26 +10554,26 @@
       <c r="AA44" s="29"/>
       <c r="AB44" s="29"/>
       <c r="AC44" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="29">
+      <c r="AD44" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE44" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF44" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG44" s="29"/>
       <c r="AH44" s="29"/>
       <c r="AI44" s="29"/>
       <c r="AJ44" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK44" s="42"/>
@@ -10446,26 +10595,26 @@
       <c r="BA44" s="55"/>
       <c r="BB44" s="55"/>
       <c r="BC44" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD44" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE44" s="29"/>
       <c r="BF44" s="29"/>
       <c r="BG44" s="29"/>
       <c r="BH44" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI44" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI44" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ44" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK44" s="54"/>
@@ -10474,12 +10623,13 @@
       <c r="BN44" s="147"/>
       <c r="BO44" s="147"/>
       <c r="BP44" s="147"/>
-      <c r="BQ44" s="158"/>
+      <c r="BQ44" s="147"/>
       <c r="BR44" s="158"/>
-      <c r="BS44" s="159"/>
-      <c r="BT44" s="14"/>
+      <c r="BS44" s="158"/>
+      <c r="BT44" s="159"/>
+      <c r="BU44" s="14"/>
     </row>
-    <row r="45" customFormat="1" spans="1:72">
+    <row r="45" customFormat="1" spans="1:73">
       <c r="A45" s="4"/>
       <c r="B45" s="4">
         <v>2013</v>
@@ -10492,7 +10642,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="42" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="11"/>
@@ -10504,7 +10654,7 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T45" s="11"/>
@@ -10517,26 +10667,26 @@
       <c r="AA45" s="29"/>
       <c r="AB45" s="29"/>
       <c r="AC45" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="29">
+      <c r="AD45" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE45" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF45" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG45" s="29"/>
       <c r="AH45" s="29"/>
       <c r="AI45" s="29"/>
       <c r="AJ45" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK45" s="42"/>
@@ -10558,26 +10708,26 @@
       <c r="BA45" s="55"/>
       <c r="BB45" s="55"/>
       <c r="BC45" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD45" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE45" s="29"/>
       <c r="BF45" s="29"/>
       <c r="BG45" s="29"/>
       <c r="BH45" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI45" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI45" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ45" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK45" s="54"/>
@@ -10586,12 +10736,13 @@
       <c r="BN45" s="147"/>
       <c r="BO45" s="147"/>
       <c r="BP45" s="147"/>
-      <c r="BQ45" s="158"/>
+      <c r="BQ45" s="147"/>
       <c r="BR45" s="158"/>
-      <c r="BS45" s="159"/>
-      <c r="BT45" s="14"/>
+      <c r="BS45" s="158"/>
+      <c r="BT45" s="159"/>
+      <c r="BU45" s="14"/>
     </row>
-    <row r="46" customFormat="1" spans="1:72">
+    <row r="46" customFormat="1" spans="1:73">
       <c r="A46" s="4"/>
       <c r="B46" s="4">
         <v>2012</v>
@@ -10604,7 +10755,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="42" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="11"/>
@@ -10616,7 +10767,7 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T46" s="11"/>
@@ -10629,26 +10780,26 @@
       <c r="AA46" s="29"/>
       <c r="AB46" s="29"/>
       <c r="AC46" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="29">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="29">
+      <c r="AD46" s="29">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AE46" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="AF46" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG46" s="29"/>
       <c r="AH46" s="29"/>
       <c r="AI46" s="29"/>
       <c r="AJ46" s="42" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK46" s="42"/>
@@ -10670,26 +10821,26 @@
       <c r="BA46" s="55"/>
       <c r="BB46" s="55"/>
       <c r="BC46" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD46" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BE46" s="29"/>
       <c r="BF46" s="29"/>
       <c r="BG46" s="29"/>
       <c r="BH46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="BI46" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="BI46" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="BJ46" s="42" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BK46" s="54"/>
@@ -10698,14 +10849,15 @@
       <c r="BN46" s="148"/>
       <c r="BO46" s="148"/>
       <c r="BP46" s="148"/>
-      <c r="BQ46" s="160"/>
+      <c r="BQ46" s="148"/>
       <c r="BR46" s="160"/>
-      <c r="BS46" s="161"/>
-      <c r="BT46" s="15"/>
+      <c r="BS46" s="160"/>
+      <c r="BT46" s="144"/>
+      <c r="BU46" s="15"/>
     </row>
-    <row r="47" spans="1:72">
+    <row r="47" spans="1:73">
       <c r="A47" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="12">
         <v>2022</v>
@@ -10763,7 +10915,7 @@
       <c r="BA47" s="55"/>
       <c r="BB47" s="55"/>
       <c r="BC47" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD47" s="29"/>
@@ -10779,12 +10931,13 @@
       <c r="BN47" s="146"/>
       <c r="BO47" s="146"/>
       <c r="BP47" s="146"/>
-      <c r="BQ47" s="156"/>
-      <c r="BR47" s="156"/>
+      <c r="BQ47" s="146"/>
+      <c r="BR47" s="157"/>
       <c r="BS47" s="157"/>
-      <c r="BT47" s="13"/>
+      <c r="BT47" s="142"/>
+      <c r="BU47" s="13"/>
     </row>
-    <row r="48" spans="1:72">
+    <row r="48" spans="1:73">
       <c r="A48" s="12"/>
       <c r="B48" s="12">
         <v>2021</v>
@@ -10842,7 +10995,7 @@
       <c r="BA48" s="55"/>
       <c r="BB48" s="55"/>
       <c r="BC48" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD48" s="29"/>
@@ -10858,12 +11011,13 @@
       <c r="BN48" s="147"/>
       <c r="BO48" s="147"/>
       <c r="BP48" s="147"/>
-      <c r="BQ48" s="158"/>
+      <c r="BQ48" s="147"/>
       <c r="BR48" s="158"/>
-      <c r="BS48" s="159"/>
-      <c r="BT48" s="14"/>
+      <c r="BS48" s="158"/>
+      <c r="BT48" s="159"/>
+      <c r="BU48" s="14"/>
     </row>
-    <row r="49" spans="1:72">
+    <row r="49" spans="1:73">
       <c r="A49" s="12"/>
       <c r="B49" s="12">
         <v>2020</v>
@@ -10921,7 +11075,7 @@
       <c r="BA49" s="55"/>
       <c r="BB49" s="55"/>
       <c r="BC49" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD49" s="29"/>
@@ -10937,12 +11091,13 @@
       <c r="BN49" s="147"/>
       <c r="BO49" s="147"/>
       <c r="BP49" s="147"/>
-      <c r="BQ49" s="158"/>
+      <c r="BQ49" s="147"/>
       <c r="BR49" s="158"/>
-      <c r="BS49" s="159"/>
-      <c r="BT49" s="14"/>
+      <c r="BS49" s="158"/>
+      <c r="BT49" s="159"/>
+      <c r="BU49" s="14"/>
     </row>
-    <row r="50" spans="1:72">
+    <row r="50" spans="1:73">
       <c r="A50" s="12"/>
       <c r="B50" s="12">
         <v>2019</v>
@@ -11000,7 +11155,7 @@
       <c r="BA50" s="55"/>
       <c r="BB50" s="55"/>
       <c r="BC50" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD50" s="29"/>
@@ -11016,12 +11171,13 @@
       <c r="BN50" s="147"/>
       <c r="BO50" s="147"/>
       <c r="BP50" s="147"/>
-      <c r="BQ50" s="158"/>
+      <c r="BQ50" s="147"/>
       <c r="BR50" s="158"/>
-      <c r="BS50" s="159"/>
-      <c r="BT50" s="14"/>
+      <c r="BS50" s="158"/>
+      <c r="BT50" s="159"/>
+      <c r="BU50" s="14"/>
     </row>
-    <row r="51" spans="1:72">
+    <row r="51" spans="1:73">
       <c r="A51" s="12"/>
       <c r="B51" s="12">
         <v>2018</v>
@@ -11079,7 +11235,7 @@
       <c r="BA51" s="55"/>
       <c r="BB51" s="55"/>
       <c r="BC51" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD51" s="29"/>
@@ -11095,12 +11251,13 @@
       <c r="BN51" s="147"/>
       <c r="BO51" s="147"/>
       <c r="BP51" s="147"/>
-      <c r="BQ51" s="158"/>
+      <c r="BQ51" s="147"/>
       <c r="BR51" s="158"/>
-      <c r="BS51" s="159"/>
-      <c r="BT51" s="14"/>
+      <c r="BS51" s="158"/>
+      <c r="BT51" s="159"/>
+      <c r="BU51" s="14"/>
     </row>
-    <row r="52" spans="1:72">
+    <row r="52" spans="1:73">
       <c r="A52" s="12"/>
       <c r="B52" s="12">
         <v>2017</v>
@@ -11158,7 +11315,7 @@
       <c r="BA52" s="55"/>
       <c r="BB52" s="55"/>
       <c r="BC52" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD52" s="29"/>
@@ -11174,12 +11331,13 @@
       <c r="BN52" s="147"/>
       <c r="BO52" s="147"/>
       <c r="BP52" s="147"/>
-      <c r="BQ52" s="158"/>
+      <c r="BQ52" s="147"/>
       <c r="BR52" s="158"/>
-      <c r="BS52" s="159"/>
-      <c r="BT52" s="14"/>
+      <c r="BS52" s="158"/>
+      <c r="BT52" s="159"/>
+      <c r="BU52" s="14"/>
     </row>
-    <row r="53" spans="1:72">
+    <row r="53" spans="1:73">
       <c r="A53" s="12"/>
       <c r="B53" s="12">
         <v>2016</v>
@@ -11237,7 +11395,7 @@
       <c r="BA53" s="55"/>
       <c r="BB53" s="55"/>
       <c r="BC53" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD53" s="29"/>
@@ -11253,12 +11411,13 @@
       <c r="BN53" s="147"/>
       <c r="BO53" s="147"/>
       <c r="BP53" s="147"/>
-      <c r="BQ53" s="158"/>
+      <c r="BQ53" s="147"/>
       <c r="BR53" s="158"/>
-      <c r="BS53" s="159"/>
-      <c r="BT53" s="14"/>
+      <c r="BS53" s="158"/>
+      <c r="BT53" s="159"/>
+      <c r="BU53" s="14"/>
     </row>
-    <row r="54" spans="1:72">
+    <row r="54" spans="1:73">
       <c r="A54" s="12"/>
       <c r="B54" s="12">
         <v>2015</v>
@@ -11316,7 +11475,7 @@
       <c r="BA54" s="55"/>
       <c r="BB54" s="55"/>
       <c r="BC54" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD54" s="29"/>
@@ -11332,12 +11491,13 @@
       <c r="BN54" s="147"/>
       <c r="BO54" s="147"/>
       <c r="BP54" s="147"/>
-      <c r="BQ54" s="158"/>
+      <c r="BQ54" s="147"/>
       <c r="BR54" s="158"/>
-      <c r="BS54" s="159"/>
-      <c r="BT54" s="14"/>
+      <c r="BS54" s="158"/>
+      <c r="BT54" s="159"/>
+      <c r="BU54" s="14"/>
     </row>
-    <row r="55" spans="1:72">
+    <row r="55" spans="1:73">
       <c r="A55" s="12"/>
       <c r="B55" s="12">
         <v>2014</v>
@@ -11395,7 +11555,7 @@
       <c r="BA55" s="55"/>
       <c r="BB55" s="55"/>
       <c r="BC55" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD55" s="29"/>
@@ -11411,12 +11571,13 @@
       <c r="BN55" s="147"/>
       <c r="BO55" s="147"/>
       <c r="BP55" s="147"/>
-      <c r="BQ55" s="158"/>
+      <c r="BQ55" s="147"/>
       <c r="BR55" s="158"/>
-      <c r="BS55" s="159"/>
-      <c r="BT55" s="14"/>
+      <c r="BS55" s="158"/>
+      <c r="BT55" s="159"/>
+      <c r="BU55" s="14"/>
     </row>
-    <row r="56" spans="1:72">
+    <row r="56" spans="1:73">
       <c r="A56" s="12"/>
       <c r="B56" s="12">
         <v>2013</v>
@@ -11474,7 +11635,7 @@
       <c r="BA56" s="55"/>
       <c r="BB56" s="55"/>
       <c r="BC56" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BD56" s="29"/>
@@ -11490,12 +11651,13 @@
       <c r="BN56" s="147"/>
       <c r="BO56" s="147"/>
       <c r="BP56" s="147"/>
-      <c r="BQ56" s="158"/>
+      <c r="BQ56" s="147"/>
       <c r="BR56" s="158"/>
-      <c r="BS56" s="159"/>
-      <c r="BT56" s="14"/>
+      <c r="BS56" s="158"/>
+      <c r="BT56" s="159"/>
+      <c r="BU56" s="14"/>
     </row>
-    <row r="57" spans="1:72">
+    <row r="57" spans="1:73">
       <c r="A57" s="12"/>
       <c r="B57" s="12">
         <v>2012</v>
@@ -11553,7 +11715,7 @@
       <c r="BA57" s="55"/>
       <c r="BB57" s="55"/>
       <c r="BC57" s="56">
-        <f t="shared" ref="BC57:BC102" si="30">H57+S57</f>
+        <f t="shared" ref="BC57:BC102" si="31">H57+S57</f>
         <v>0</v>
       </c>
       <c r="BD57" s="29"/>
@@ -11569,14 +11731,15 @@
       <c r="BN57" s="148"/>
       <c r="BO57" s="148"/>
       <c r="BP57" s="148"/>
-      <c r="BQ57" s="160"/>
+      <c r="BQ57" s="148"/>
       <c r="BR57" s="160"/>
-      <c r="BS57" s="161"/>
-      <c r="BT57" s="15"/>
+      <c r="BS57" s="160"/>
+      <c r="BT57" s="144"/>
+      <c r="BU57" s="15"/>
     </row>
-    <row r="58" spans="1:72">
+    <row r="58" spans="1:73">
       <c r="A58" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="12">
         <v>2022</v>
@@ -11586,7 +11749,7 @@
         <v>5322000000</v>
       </c>
       <c r="D58" s="124" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -11639,7 +11802,7 @@
       <c r="BA58" s="55"/>
       <c r="BB58" s="55"/>
       <c r="BC58" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD58" s="29"/>
@@ -11655,12 +11818,13 @@
       <c r="BN58" s="11"/>
       <c r="BO58" s="11"/>
       <c r="BP58" s="11"/>
-      <c r="BQ58" s="54"/>
+      <c r="BQ58" s="11"/>
       <c r="BR58" s="54"/>
-      <c r="BS58" s="162"/>
-      <c r="BT58" s="55"/>
+      <c r="BS58" s="54"/>
+      <c r="BT58" s="130"/>
+      <c r="BU58" s="55"/>
     </row>
-    <row r="59" spans="1:72">
+    <row r="59" spans="1:73">
       <c r="A59" s="67"/>
       <c r="B59" s="12">
         <v>2021</v>
@@ -11670,7 +11834,7 @@
         <v>7903000000</v>
       </c>
       <c r="D59" s="124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -11723,7 +11887,7 @@
       <c r="BA59" s="55"/>
       <c r="BB59" s="55"/>
       <c r="BC59" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD59" s="29"/>
@@ -11739,12 +11903,13 @@
       <c r="BN59" s="11"/>
       <c r="BO59" s="11"/>
       <c r="BP59" s="11"/>
-      <c r="BQ59" s="54"/>
+      <c r="BQ59" s="11"/>
       <c r="BR59" s="54"/>
-      <c r="BS59" s="162"/>
-      <c r="BT59" s="55"/>
+      <c r="BS59" s="54"/>
+      <c r="BT59" s="130"/>
+      <c r="BU59" s="55"/>
     </row>
-    <row r="60" spans="1:72">
+    <row r="60" spans="1:73">
       <c r="A60" s="67"/>
       <c r="B60" s="12">
         <v>2020</v>
@@ -11754,7 +11919,7 @@
         <v>7811000000</v>
       </c>
       <c r="D60" s="124" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -11807,7 +11972,7 @@
       <c r="BA60" s="55"/>
       <c r="BB60" s="55"/>
       <c r="BC60" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD60" s="29"/>
@@ -11823,12 +11988,13 @@
       <c r="BN60" s="11"/>
       <c r="BO60" s="11"/>
       <c r="BP60" s="11"/>
-      <c r="BQ60" s="54"/>
+      <c r="BQ60" s="11"/>
       <c r="BR60" s="54"/>
-      <c r="BS60" s="162"/>
-      <c r="BT60" s="55"/>
+      <c r="BS60" s="54"/>
+      <c r="BT60" s="130"/>
+      <c r="BU60" s="55"/>
     </row>
-    <row r="61" spans="1:72">
+    <row r="61" spans="1:73">
       <c r="A61" s="67"/>
       <c r="B61" s="12">
         <v>2019</v>
@@ -11838,7 +12004,7 @@
         <v>4124000000</v>
       </c>
       <c r="D61" s="124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -11891,7 +12057,7 @@
       <c r="BA61" s="55"/>
       <c r="BB61" s="55"/>
       <c r="BC61" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD61" s="29"/>
@@ -11907,12 +12073,13 @@
       <c r="BN61" s="11"/>
       <c r="BO61" s="11"/>
       <c r="BP61" s="11"/>
-      <c r="BQ61" s="54"/>
+      <c r="BQ61" s="11"/>
       <c r="BR61" s="54"/>
-      <c r="BS61" s="162"/>
-      <c r="BT61" s="55"/>
+      <c r="BS61" s="54"/>
+      <c r="BT61" s="130"/>
+      <c r="BU61" s="55"/>
     </row>
-    <row r="62" spans="1:72">
+    <row r="62" spans="1:73">
       <c r="A62" s="67"/>
       <c r="B62" s="12">
         <v>2018</v>
@@ -11922,7 +12089,7 @@
         <v>4147000000</v>
       </c>
       <c r="D62" s="124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -11975,7 +12142,7 @@
       <c r="BA62" s="55"/>
       <c r="BB62" s="55"/>
       <c r="BC62" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD62" s="29"/>
@@ -11991,12 +12158,13 @@
       <c r="BN62" s="11"/>
       <c r="BO62" s="11"/>
       <c r="BP62" s="11"/>
-      <c r="BQ62" s="54"/>
+      <c r="BQ62" s="11"/>
       <c r="BR62" s="54"/>
-      <c r="BS62" s="162"/>
-      <c r="BT62" s="55"/>
+      <c r="BS62" s="54"/>
+      <c r="BT62" s="130"/>
+      <c r="BU62" s="55"/>
     </row>
-    <row r="63" spans="1:72">
+    <row r="63" spans="1:73">
       <c r="A63" s="67"/>
       <c r="B63" s="12">
         <v>2017</v>
@@ -12006,7 +12174,7 @@
         <v>8133000000</v>
       </c>
       <c r="D63" s="124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -12059,7 +12227,7 @@
       <c r="BA63" s="55"/>
       <c r="BB63" s="55"/>
       <c r="BC63" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD63" s="29"/>
@@ -12075,12 +12243,13 @@
       <c r="BN63" s="11"/>
       <c r="BO63" s="11"/>
       <c r="BP63" s="11"/>
-      <c r="BQ63" s="54"/>
+      <c r="BQ63" s="11"/>
       <c r="BR63" s="54"/>
-      <c r="BS63" s="162"/>
-      <c r="BT63" s="55"/>
+      <c r="BS63" s="54"/>
+      <c r="BT63" s="130"/>
+      <c r="BU63" s="55"/>
     </row>
-    <row r="64" spans="1:72">
+    <row r="64" spans="1:73">
       <c r="A64" s="67"/>
       <c r="B64" s="12">
         <v>2016</v>
@@ -12090,7 +12259,7 @@
         <v>8110000000</v>
       </c>
       <c r="D64" s="124" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -12143,7 +12312,7 @@
       <c r="BA64" s="55"/>
       <c r="BB64" s="55"/>
       <c r="BC64" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD64" s="29"/>
@@ -12159,12 +12328,13 @@
       <c r="BN64" s="11"/>
       <c r="BO64" s="11"/>
       <c r="BP64" s="11"/>
-      <c r="BQ64" s="54"/>
+      <c r="BQ64" s="11"/>
       <c r="BR64" s="54"/>
-      <c r="BS64" s="162"/>
-      <c r="BT64" s="55"/>
+      <c r="BS64" s="54"/>
+      <c r="BT64" s="130"/>
+      <c r="BU64" s="55"/>
     </row>
-    <row r="65" spans="1:72">
+    <row r="65" spans="1:73">
       <c r="A65" s="67"/>
       <c r="B65" s="12">
         <v>2015</v>
@@ -12174,7 +12344,7 @@
         <v>9354000000</v>
       </c>
       <c r="D65" s="124" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -12227,7 +12397,7 @@
       <c r="BA65" s="55"/>
       <c r="BB65" s="55"/>
       <c r="BC65" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD65" s="29"/>
@@ -12243,12 +12413,13 @@
       <c r="BN65" s="11"/>
       <c r="BO65" s="11"/>
       <c r="BP65" s="11"/>
-      <c r="BQ65" s="54"/>
+      <c r="BQ65" s="11"/>
       <c r="BR65" s="54"/>
-      <c r="BS65" s="162"/>
-      <c r="BT65" s="55"/>
+      <c r="BS65" s="54"/>
+      <c r="BT65" s="130"/>
+      <c r="BU65" s="55"/>
     </row>
-    <row r="66" spans="1:72">
+    <row r="66" spans="1:73">
       <c r="A66" s="67"/>
       <c r="B66" s="12">
         <v>2014</v>
@@ -12258,7 +12429,7 @@
         <v>5451000000</v>
       </c>
       <c r="D66" s="124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -12311,7 +12482,7 @@
       <c r="BA66" s="55"/>
       <c r="BB66" s="55"/>
       <c r="BC66" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD66" s="29"/>
@@ -12327,12 +12498,13 @@
       <c r="BN66" s="11"/>
       <c r="BO66" s="11"/>
       <c r="BP66" s="11"/>
-      <c r="BQ66" s="54"/>
+      <c r="BQ66" s="11"/>
       <c r="BR66" s="54"/>
-      <c r="BS66" s="162"/>
-      <c r="BT66" s="55"/>
+      <c r="BS66" s="54"/>
+      <c r="BT66" s="130"/>
+      <c r="BU66" s="55"/>
     </row>
-    <row r="67" spans="1:72">
+    <row r="67" spans="1:73">
       <c r="A67" s="67"/>
       <c r="B67" s="12">
         <v>2013</v>
@@ -12342,7 +12514,7 @@
         <v>4382000000</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -12395,7 +12567,7 @@
       <c r="BA67" s="55"/>
       <c r="BB67" s="55"/>
       <c r="BC67" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD67" s="29"/>
@@ -12411,12 +12583,13 @@
       <c r="BN67" s="11"/>
       <c r="BO67" s="11"/>
       <c r="BP67" s="11"/>
-      <c r="BQ67" s="54"/>
+      <c r="BQ67" s="11"/>
       <c r="BR67" s="54"/>
-      <c r="BS67" s="162"/>
-      <c r="BT67" s="55"/>
+      <c r="BS67" s="54"/>
+      <c r="BT67" s="130"/>
+      <c r="BU67" s="55"/>
     </row>
-    <row r="68" spans="1:72">
+    <row r="68" spans="1:73">
       <c r="A68" s="8"/>
       <c r="B68" s="12">
         <v>2012</v>
@@ -12474,7 +12647,7 @@
       <c r="BA68" s="55"/>
       <c r="BB68" s="55"/>
       <c r="BC68" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD68" s="29"/>
@@ -12490,14 +12663,15 @@
       <c r="BN68" s="11"/>
       <c r="BO68" s="11"/>
       <c r="BP68" s="11"/>
-      <c r="BQ68" s="54"/>
+      <c r="BQ68" s="11"/>
       <c r="BR68" s="54"/>
-      <c r="BS68" s="162"/>
-      <c r="BT68" s="55"/>
+      <c r="BS68" s="54"/>
+      <c r="BT68" s="130"/>
+      <c r="BU68" s="55"/>
     </row>
-    <row r="69" spans="1:72">
+    <row r="69" spans="1:73">
       <c r="A69" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="12">
         <v>2022</v>
@@ -12555,7 +12729,7 @@
       <c r="BA69" s="55"/>
       <c r="BB69" s="55"/>
       <c r="BC69" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD69" s="29"/>
@@ -12571,12 +12745,13 @@
       <c r="BN69" s="11"/>
       <c r="BO69" s="11"/>
       <c r="BP69" s="11"/>
-      <c r="BQ69" s="54"/>
+      <c r="BQ69" s="11"/>
       <c r="BR69" s="54"/>
-      <c r="BS69" s="162"/>
-      <c r="BT69" s="55"/>
+      <c r="BS69" s="54"/>
+      <c r="BT69" s="130"/>
+      <c r="BU69" s="55"/>
     </row>
-    <row r="70" spans="1:72">
+    <row r="70" spans="1:73">
       <c r="A70" s="12"/>
       <c r="B70" s="12">
         <v>2021</v>
@@ -12634,7 +12809,7 @@
       <c r="BA70" s="55"/>
       <c r="BB70" s="55"/>
       <c r="BC70" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD70" s="29"/>
@@ -12650,12 +12825,13 @@
       <c r="BN70" s="11"/>
       <c r="BO70" s="11"/>
       <c r="BP70" s="11"/>
-      <c r="BQ70" s="54"/>
+      <c r="BQ70" s="11"/>
       <c r="BR70" s="54"/>
-      <c r="BS70" s="162"/>
-      <c r="BT70" s="55"/>
+      <c r="BS70" s="54"/>
+      <c r="BT70" s="130"/>
+      <c r="BU70" s="55"/>
     </row>
-    <row r="71" spans="1:72">
+    <row r="71" spans="1:73">
       <c r="A71" s="12"/>
       <c r="B71" s="12">
         <v>2020</v>
@@ -12713,7 +12889,7 @@
       <c r="BA71" s="55"/>
       <c r="BB71" s="55"/>
       <c r="BC71" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD71" s="29"/>
@@ -12729,12 +12905,13 @@
       <c r="BN71" s="11"/>
       <c r="BO71" s="11"/>
       <c r="BP71" s="11"/>
-      <c r="BQ71" s="54"/>
+      <c r="BQ71" s="11"/>
       <c r="BR71" s="54"/>
-      <c r="BS71" s="162"/>
-      <c r="BT71" s="55"/>
+      <c r="BS71" s="54"/>
+      <c r="BT71" s="130"/>
+      <c r="BU71" s="55"/>
     </row>
-    <row r="72" spans="1:72">
+    <row r="72" spans="1:73">
       <c r="A72" s="12"/>
       <c r="B72" s="12">
         <v>2019</v>
@@ -12792,7 +12969,7 @@
       <c r="BA72" s="55"/>
       <c r="BB72" s="55"/>
       <c r="BC72" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD72" s="29"/>
@@ -12808,12 +12985,13 @@
       <c r="BN72" s="11"/>
       <c r="BO72" s="11"/>
       <c r="BP72" s="11"/>
-      <c r="BQ72" s="54"/>
+      <c r="BQ72" s="11"/>
       <c r="BR72" s="54"/>
-      <c r="BS72" s="162"/>
-      <c r="BT72" s="55"/>
+      <c r="BS72" s="54"/>
+      <c r="BT72" s="130"/>
+      <c r="BU72" s="55"/>
     </row>
-    <row r="73" spans="1:72">
+    <row r="73" spans="1:73">
       <c r="A73" s="12"/>
       <c r="B73" s="12">
         <v>2018</v>
@@ -12871,7 +13049,7 @@
       <c r="BA73" s="55"/>
       <c r="BB73" s="55"/>
       <c r="BC73" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD73" s="29"/>
@@ -12887,12 +13065,13 @@
       <c r="BN73" s="11"/>
       <c r="BO73" s="11"/>
       <c r="BP73" s="11"/>
-      <c r="BQ73" s="54"/>
+      <c r="BQ73" s="11"/>
       <c r="BR73" s="54"/>
-      <c r="BS73" s="162"/>
-      <c r="BT73" s="55"/>
+      <c r="BS73" s="54"/>
+      <c r="BT73" s="130"/>
+      <c r="BU73" s="55"/>
     </row>
-    <row r="74" spans="1:72">
+    <row r="74" spans="1:73">
       <c r="A74" s="12"/>
       <c r="B74" s="12">
         <v>2017</v>
@@ -12950,7 +13129,7 @@
       <c r="BA74" s="55"/>
       <c r="BB74" s="55"/>
       <c r="BC74" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD74" s="29"/>
@@ -12966,12 +13145,13 @@
       <c r="BN74" s="11"/>
       <c r="BO74" s="11"/>
       <c r="BP74" s="11"/>
-      <c r="BQ74" s="54"/>
+      <c r="BQ74" s="11"/>
       <c r="BR74" s="54"/>
-      <c r="BS74" s="162"/>
-      <c r="BT74" s="55"/>
+      <c r="BS74" s="54"/>
+      <c r="BT74" s="130"/>
+      <c r="BU74" s="55"/>
     </row>
-    <row r="75" spans="1:72">
+    <row r="75" spans="1:73">
       <c r="A75" s="12"/>
       <c r="B75" s="12">
         <v>2016</v>
@@ -13029,7 +13209,7 @@
       <c r="BA75" s="55"/>
       <c r="BB75" s="55"/>
       <c r="BC75" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD75" s="29"/>
@@ -13045,12 +13225,13 @@
       <c r="BN75" s="11"/>
       <c r="BO75" s="11"/>
       <c r="BP75" s="11"/>
-      <c r="BQ75" s="54"/>
+      <c r="BQ75" s="11"/>
       <c r="BR75" s="54"/>
-      <c r="BS75" s="162"/>
-      <c r="BT75" s="55"/>
+      <c r="BS75" s="54"/>
+      <c r="BT75" s="130"/>
+      <c r="BU75" s="55"/>
     </row>
-    <row r="76" spans="1:72">
+    <row r="76" spans="1:73">
       <c r="A76" s="12"/>
       <c r="B76" s="12">
         <v>2015</v>
@@ -13108,7 +13289,7 @@
       <c r="BA76" s="55"/>
       <c r="BB76" s="55"/>
       <c r="BC76" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD76" s="29"/>
@@ -13124,12 +13305,13 @@
       <c r="BN76" s="11"/>
       <c r="BO76" s="11"/>
       <c r="BP76" s="11"/>
-      <c r="BQ76" s="54"/>
+      <c r="BQ76" s="11"/>
       <c r="BR76" s="54"/>
-      <c r="BS76" s="162"/>
-      <c r="BT76" s="55"/>
+      <c r="BS76" s="54"/>
+      <c r="BT76" s="130"/>
+      <c r="BU76" s="55"/>
     </row>
-    <row r="77" spans="1:72">
+    <row r="77" spans="1:73">
       <c r="A77" s="12"/>
       <c r="B77" s="12">
         <v>2014</v>
@@ -13187,7 +13369,7 @@
       <c r="BA77" s="55"/>
       <c r="BB77" s="55"/>
       <c r="BC77" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD77" s="29"/>
@@ -13203,12 +13385,13 @@
       <c r="BN77" s="11"/>
       <c r="BO77" s="11"/>
       <c r="BP77" s="11"/>
-      <c r="BQ77" s="54"/>
+      <c r="BQ77" s="11"/>
       <c r="BR77" s="54"/>
-      <c r="BS77" s="162"/>
-      <c r="BT77" s="55"/>
+      <c r="BS77" s="54"/>
+      <c r="BT77" s="130"/>
+      <c r="BU77" s="55"/>
     </row>
-    <row r="78" spans="1:72">
+    <row r="78" spans="1:73">
       <c r="A78" s="12"/>
       <c r="B78" s="12">
         <v>2013</v>
@@ -13266,7 +13449,7 @@
       <c r="BA78" s="55"/>
       <c r="BB78" s="55"/>
       <c r="BC78" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD78" s="29"/>
@@ -13282,12 +13465,13 @@
       <c r="BN78" s="11"/>
       <c r="BO78" s="11"/>
       <c r="BP78" s="11"/>
-      <c r="BQ78" s="54"/>
+      <c r="BQ78" s="11"/>
       <c r="BR78" s="54"/>
-      <c r="BS78" s="162"/>
-      <c r="BT78" s="55"/>
+      <c r="BS78" s="54"/>
+      <c r="BT78" s="130"/>
+      <c r="BU78" s="55"/>
     </row>
-    <row r="79" spans="1:72">
+    <row r="79" spans="1:73">
       <c r="A79" s="12"/>
       <c r="B79" s="12">
         <v>2012</v>
@@ -13345,7 +13529,7 @@
       <c r="BA79" s="55"/>
       <c r="BB79" s="55"/>
       <c r="BC79" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD79" s="29"/>
@@ -13361,14 +13545,15 @@
       <c r="BN79" s="11"/>
       <c r="BO79" s="11"/>
       <c r="BP79" s="11"/>
-      <c r="BQ79" s="54"/>
+      <c r="BQ79" s="11"/>
       <c r="BR79" s="54"/>
-      <c r="BS79" s="162"/>
-      <c r="BT79" s="55"/>
+      <c r="BS79" s="54"/>
+      <c r="BT79" s="130"/>
+      <c r="BU79" s="55"/>
     </row>
-    <row r="80" spans="1:72">
+    <row r="80" spans="1:73">
       <c r="A80" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="12">
         <v>2022</v>
@@ -13426,7 +13611,7 @@
       <c r="BA80" s="55"/>
       <c r="BB80" s="55"/>
       <c r="BC80" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD80" s="29"/>
@@ -13442,12 +13627,13 @@
       <c r="BN80" s="11"/>
       <c r="BO80" s="11"/>
       <c r="BP80" s="11"/>
-      <c r="BQ80" s="54"/>
+      <c r="BQ80" s="11"/>
       <c r="BR80" s="54"/>
-      <c r="BS80" s="162"/>
-      <c r="BT80" s="55"/>
+      <c r="BS80" s="54"/>
+      <c r="BT80" s="130"/>
+      <c r="BU80" s="55"/>
     </row>
-    <row r="81" spans="1:72">
+    <row r="81" spans="1:73">
       <c r="A81" s="12"/>
       <c r="B81" s="12">
         <v>2021</v>
@@ -13505,7 +13691,7 @@
       <c r="BA81" s="55"/>
       <c r="BB81" s="55"/>
       <c r="BC81" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD81" s="29"/>
@@ -13521,12 +13707,13 @@
       <c r="BN81" s="11"/>
       <c r="BO81" s="11"/>
       <c r="BP81" s="11"/>
-      <c r="BQ81" s="54"/>
+      <c r="BQ81" s="11"/>
       <c r="BR81" s="54"/>
-      <c r="BS81" s="162"/>
-      <c r="BT81" s="55"/>
+      <c r="BS81" s="54"/>
+      <c r="BT81" s="130"/>
+      <c r="BU81" s="55"/>
     </row>
-    <row r="82" spans="1:72">
+    <row r="82" spans="1:73">
       <c r="A82" s="12"/>
       <c r="B82" s="12">
         <v>2020</v>
@@ -13584,7 +13771,7 @@
       <c r="BA82" s="55"/>
       <c r="BB82" s="55"/>
       <c r="BC82" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD82" s="29"/>
@@ -13600,12 +13787,13 @@
       <c r="BN82" s="11"/>
       <c r="BO82" s="11"/>
       <c r="BP82" s="11"/>
-      <c r="BQ82" s="54"/>
+      <c r="BQ82" s="11"/>
       <c r="BR82" s="54"/>
-      <c r="BS82" s="162"/>
-      <c r="BT82" s="55"/>
+      <c r="BS82" s="54"/>
+      <c r="BT82" s="130"/>
+      <c r="BU82" s="55"/>
     </row>
-    <row r="83" spans="1:72">
+    <row r="83" spans="1:73">
       <c r="A83" s="12"/>
       <c r="B83" s="12">
         <v>2019</v>
@@ -13663,7 +13851,7 @@
       <c r="BA83" s="55"/>
       <c r="BB83" s="55"/>
       <c r="BC83" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD83" s="29"/>
@@ -13673,18 +13861,19 @@
       <c r="BH83" s="11"/>
       <c r="BI83" s="11"/>
       <c r="BJ83" s="42"/>
-      <c r="BK83" s="163"/>
+      <c r="BK83" s="161"/>
       <c r="BL83" s="124"/>
       <c r="BM83" s="124"/>
       <c r="BN83" s="124"/>
       <c r="BO83" s="124"/>
       <c r="BP83" s="124"/>
-      <c r="BQ83" s="163"/>
-      <c r="BR83" s="163"/>
-      <c r="BS83" s="162"/>
-      <c r="BT83" s="55"/>
+      <c r="BQ83" s="124"/>
+      <c r="BR83" s="161"/>
+      <c r="BS83" s="161"/>
+      <c r="BT83" s="130"/>
+      <c r="BU83" s="55"/>
     </row>
-    <row r="84" spans="1:72">
+    <row r="84" spans="1:73">
       <c r="A84" s="12"/>
       <c r="B84" s="12">
         <v>2018</v>
@@ -13742,7 +13931,7 @@
       <c r="BA84" s="55"/>
       <c r="BB84" s="55"/>
       <c r="BC84" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD84" s="29"/>
@@ -13752,18 +13941,19 @@
       <c r="BH84" s="11"/>
       <c r="BI84" s="11"/>
       <c r="BJ84" s="42"/>
-      <c r="BK84" s="163"/>
+      <c r="BK84" s="161"/>
       <c r="BL84" s="124"/>
       <c r="BM84" s="124"/>
       <c r="BN84" s="124"/>
       <c r="BO84" s="124"/>
       <c r="BP84" s="124"/>
-      <c r="BQ84" s="163"/>
-      <c r="BR84" s="163"/>
-      <c r="BS84" s="162"/>
-      <c r="BT84" s="55"/>
+      <c r="BQ84" s="124"/>
+      <c r="BR84" s="161"/>
+      <c r="BS84" s="161"/>
+      <c r="BT84" s="130"/>
+      <c r="BU84" s="55"/>
     </row>
-    <row r="85" spans="1:72">
+    <row r="85" spans="1:73">
       <c r="A85" s="12"/>
       <c r="B85" s="12">
         <v>2017</v>
@@ -13821,7 +14011,7 @@
       <c r="BA85" s="55"/>
       <c r="BB85" s="55"/>
       <c r="BC85" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD85" s="29"/>
@@ -13831,18 +14021,19 @@
       <c r="BH85" s="11"/>
       <c r="BI85" s="11"/>
       <c r="BJ85" s="42"/>
-      <c r="BK85" s="163"/>
+      <c r="BK85" s="161"/>
       <c r="BL85" s="124"/>
       <c r="BM85" s="124"/>
       <c r="BN85" s="124"/>
       <c r="BO85" s="124"/>
       <c r="BP85" s="124"/>
-      <c r="BQ85" s="163"/>
-      <c r="BR85" s="163"/>
-      <c r="BS85" s="162"/>
-      <c r="BT85" s="55"/>
+      <c r="BQ85" s="124"/>
+      <c r="BR85" s="161"/>
+      <c r="BS85" s="161"/>
+      <c r="BT85" s="130"/>
+      <c r="BU85" s="55"/>
     </row>
-    <row r="86" spans="1:72">
+    <row r="86" spans="1:73">
       <c r="A86" s="12"/>
       <c r="B86" s="12">
         <v>2016</v>
@@ -13900,7 +14091,7 @@
       <c r="BA86" s="55"/>
       <c r="BB86" s="55"/>
       <c r="BC86" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD86" s="29"/>
@@ -13910,18 +14101,19 @@
       <c r="BH86" s="11"/>
       <c r="BI86" s="11"/>
       <c r="BJ86" s="42"/>
-      <c r="BK86" s="163"/>
+      <c r="BK86" s="161"/>
       <c r="BL86" s="124"/>
       <c r="BM86" s="124"/>
       <c r="BN86" s="124"/>
       <c r="BO86" s="124"/>
       <c r="BP86" s="124"/>
-      <c r="BQ86" s="163"/>
-      <c r="BR86" s="163"/>
-      <c r="BS86" s="162"/>
-      <c r="BT86" s="55"/>
+      <c r="BQ86" s="124"/>
+      <c r="BR86" s="161"/>
+      <c r="BS86" s="161"/>
+      <c r="BT86" s="130"/>
+      <c r="BU86" s="55"/>
     </row>
-    <row r="87" spans="1:72">
+    <row r="87" spans="1:73">
       <c r="A87" s="12"/>
       <c r="B87" s="12">
         <v>2015</v>
@@ -13979,7 +14171,7 @@
       <c r="BA87" s="55"/>
       <c r="BB87" s="55"/>
       <c r="BC87" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD87" s="29"/>
@@ -13989,18 +14181,19 @@
       <c r="BH87" s="11"/>
       <c r="BI87" s="11"/>
       <c r="BJ87" s="42"/>
-      <c r="BK87" s="163"/>
+      <c r="BK87" s="161"/>
       <c r="BL87" s="124"/>
       <c r="BM87" s="124"/>
       <c r="BN87" s="124"/>
       <c r="BO87" s="124"/>
       <c r="BP87" s="124"/>
-      <c r="BQ87" s="163"/>
-      <c r="BR87" s="163"/>
-      <c r="BS87" s="162"/>
-      <c r="BT87" s="55"/>
+      <c r="BQ87" s="124"/>
+      <c r="BR87" s="161"/>
+      <c r="BS87" s="161"/>
+      <c r="BT87" s="130"/>
+      <c r="BU87" s="55"/>
     </row>
-    <row r="88" spans="1:72">
+    <row r="88" spans="1:73">
       <c r="A88" s="12"/>
       <c r="B88" s="12">
         <v>2014</v>
@@ -14058,7 +14251,7 @@
       <c r="BA88" s="55"/>
       <c r="BB88" s="55"/>
       <c r="BC88" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD88" s="29"/>
@@ -14068,18 +14261,19 @@
       <c r="BH88" s="11"/>
       <c r="BI88" s="11"/>
       <c r="BJ88" s="42"/>
-      <c r="BK88" s="163"/>
+      <c r="BK88" s="161"/>
       <c r="BL88" s="124"/>
       <c r="BM88" s="124"/>
       <c r="BN88" s="124"/>
       <c r="BO88" s="124"/>
       <c r="BP88" s="124"/>
-      <c r="BQ88" s="163"/>
-      <c r="BR88" s="163"/>
-      <c r="BS88" s="162"/>
-      <c r="BT88" s="55"/>
+      <c r="BQ88" s="124"/>
+      <c r="BR88" s="161"/>
+      <c r="BS88" s="161"/>
+      <c r="BT88" s="130"/>
+      <c r="BU88" s="55"/>
     </row>
-    <row r="89" spans="1:72">
+    <row r="89" spans="1:73">
       <c r="A89" s="12"/>
       <c r="B89" s="12">
         <v>2013</v>
@@ -14137,7 +14331,7 @@
       <c r="BA89" s="55"/>
       <c r="BB89" s="55"/>
       <c r="BC89" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD89" s="29"/>
@@ -14147,18 +14341,19 @@
       <c r="BH89" s="11"/>
       <c r="BI89" s="11"/>
       <c r="BJ89" s="42"/>
-      <c r="BK89" s="163"/>
+      <c r="BK89" s="161"/>
       <c r="BL89" s="124"/>
       <c r="BM89" s="124"/>
       <c r="BN89" s="124"/>
       <c r="BO89" s="124"/>
       <c r="BP89" s="124"/>
-      <c r="BQ89" s="163"/>
-      <c r="BR89" s="163"/>
-      <c r="BS89" s="162"/>
-      <c r="BT89" s="55"/>
+      <c r="BQ89" s="124"/>
+      <c r="BR89" s="161"/>
+      <c r="BS89" s="161"/>
+      <c r="BT89" s="130"/>
+      <c r="BU89" s="55"/>
     </row>
-    <row r="90" spans="1:72">
+    <row r="90" spans="1:73">
       <c r="A90" s="12"/>
       <c r="B90" s="12">
         <v>2012</v>
@@ -14216,7 +14411,7 @@
       <c r="BA90" s="55"/>
       <c r="BB90" s="55"/>
       <c r="BC90" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD90" s="29"/>
@@ -14226,20 +14421,21 @@
       <c r="BH90" s="11"/>
       <c r="BI90" s="11"/>
       <c r="BJ90" s="42"/>
-      <c r="BK90" s="163"/>
+      <c r="BK90" s="161"/>
       <c r="BL90" s="124"/>
       <c r="BM90" s="124"/>
       <c r="BN90" s="124"/>
       <c r="BO90" s="124"/>
       <c r="BP90" s="124"/>
-      <c r="BQ90" s="163"/>
-      <c r="BR90" s="163"/>
-      <c r="BS90" s="162"/>
-      <c r="BT90" s="55"/>
+      <c r="BQ90" s="124"/>
+      <c r="BR90" s="161"/>
+      <c r="BS90" s="161"/>
+      <c r="BT90" s="130"/>
+      <c r="BU90" s="55"/>
     </row>
-    <row r="91" spans="1:72">
+    <row r="91" spans="1:73">
       <c r="A91" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="12">
         <v>2022</v>
@@ -14297,7 +14493,7 @@
       <c r="BA91" s="55"/>
       <c r="BB91" s="55"/>
       <c r="BC91" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD91" s="29"/>
@@ -14307,18 +14503,19 @@
       <c r="BH91" s="11"/>
       <c r="BI91" s="11"/>
       <c r="BJ91" s="42"/>
-      <c r="BK91" s="163"/>
+      <c r="BK91" s="161"/>
       <c r="BL91" s="124"/>
       <c r="BM91" s="124"/>
       <c r="BN91" s="124"/>
       <c r="BO91" s="124"/>
       <c r="BP91" s="124"/>
-      <c r="BQ91" s="163"/>
-      <c r="BR91" s="163"/>
-      <c r="BS91" s="162"/>
-      <c r="BT91" s="55"/>
+      <c r="BQ91" s="124"/>
+      <c r="BR91" s="161"/>
+      <c r="BS91" s="161"/>
+      <c r="BT91" s="130"/>
+      <c r="BU91" s="55"/>
     </row>
-    <row r="92" spans="1:72">
+    <row r="92" spans="1:73">
       <c r="A92" s="12"/>
       <c r="B92" s="12">
         <v>2021</v>
@@ -14376,7 +14573,7 @@
       <c r="BA92" s="55"/>
       <c r="BB92" s="55"/>
       <c r="BC92" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD92" s="29"/>
@@ -14386,18 +14583,19 @@
       <c r="BH92" s="11"/>
       <c r="BI92" s="11"/>
       <c r="BJ92" s="42"/>
-      <c r="BK92" s="163"/>
+      <c r="BK92" s="161"/>
       <c r="BL92" s="124"/>
       <c r="BM92" s="124"/>
       <c r="BN92" s="124"/>
       <c r="BO92" s="124"/>
       <c r="BP92" s="124"/>
-      <c r="BQ92" s="163"/>
-      <c r="BR92" s="163"/>
-      <c r="BS92" s="162"/>
-      <c r="BT92" s="55"/>
+      <c r="BQ92" s="124"/>
+      <c r="BR92" s="161"/>
+      <c r="BS92" s="161"/>
+      <c r="BT92" s="130"/>
+      <c r="BU92" s="55"/>
     </row>
-    <row r="93" spans="1:72">
+    <row r="93" spans="1:73">
       <c r="A93" s="12"/>
       <c r="B93" s="12">
         <v>2020</v>
@@ -14455,7 +14653,7 @@
       <c r="BA93" s="55"/>
       <c r="BB93" s="55"/>
       <c r="BC93" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD93" s="29"/>
@@ -14465,18 +14663,19 @@
       <c r="BH93" s="11"/>
       <c r="BI93" s="11"/>
       <c r="BJ93" s="42"/>
-      <c r="BK93" s="163"/>
+      <c r="BK93" s="161"/>
       <c r="BL93" s="124"/>
       <c r="BM93" s="124"/>
       <c r="BN93" s="124"/>
       <c r="BO93" s="124"/>
       <c r="BP93" s="124"/>
-      <c r="BQ93" s="163"/>
-      <c r="BR93" s="163"/>
-      <c r="BS93" s="162"/>
-      <c r="BT93" s="55"/>
+      <c r="BQ93" s="124"/>
+      <c r="BR93" s="161"/>
+      <c r="BS93" s="161"/>
+      <c r="BT93" s="130"/>
+      <c r="BU93" s="55"/>
     </row>
-    <row r="94" spans="1:72">
+    <row r="94" spans="1:73">
       <c r="A94" s="12"/>
       <c r="B94" s="12">
         <v>2019</v>
@@ -14534,7 +14733,7 @@
       <c r="BA94" s="55"/>
       <c r="BB94" s="55"/>
       <c r="BC94" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD94" s="29"/>
@@ -14544,18 +14743,19 @@
       <c r="BH94" s="11"/>
       <c r="BI94" s="11"/>
       <c r="BJ94" s="42"/>
-      <c r="BK94" s="163"/>
+      <c r="BK94" s="161"/>
       <c r="BL94" s="124"/>
       <c r="BM94" s="124"/>
       <c r="BN94" s="124"/>
       <c r="BO94" s="124"/>
       <c r="BP94" s="124"/>
-      <c r="BQ94" s="163"/>
-      <c r="BR94" s="163"/>
-      <c r="BS94" s="162"/>
-      <c r="BT94" s="55"/>
+      <c r="BQ94" s="124"/>
+      <c r="BR94" s="161"/>
+      <c r="BS94" s="161"/>
+      <c r="BT94" s="130"/>
+      <c r="BU94" s="55"/>
     </row>
-    <row r="95" spans="1:72">
+    <row r="95" spans="1:73">
       <c r="A95" s="12"/>
       <c r="B95" s="12">
         <v>2018</v>
@@ -14613,7 +14813,7 @@
       <c r="BA95" s="55"/>
       <c r="BB95" s="55"/>
       <c r="BC95" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD95" s="29"/>
@@ -14623,18 +14823,19 @@
       <c r="BH95" s="11"/>
       <c r="BI95" s="11"/>
       <c r="BJ95" s="42"/>
-      <c r="BK95" s="163"/>
+      <c r="BK95" s="161"/>
       <c r="BL95" s="124"/>
       <c r="BM95" s="124"/>
       <c r="BN95" s="124"/>
       <c r="BO95" s="124"/>
       <c r="BP95" s="124"/>
-      <c r="BQ95" s="163"/>
-      <c r="BR95" s="163"/>
-      <c r="BS95" s="162"/>
-      <c r="BT95" s="55"/>
+      <c r="BQ95" s="124"/>
+      <c r="BR95" s="161"/>
+      <c r="BS95" s="161"/>
+      <c r="BT95" s="130"/>
+      <c r="BU95" s="55"/>
     </row>
-    <row r="96" spans="1:72">
+    <row r="96" spans="1:73">
       <c r="A96" s="12"/>
       <c r="B96" s="12">
         <v>2017</v>
@@ -14692,7 +14893,7 @@
       <c r="BA96" s="55"/>
       <c r="BB96" s="55"/>
       <c r="BC96" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD96" s="29"/>
@@ -14702,18 +14903,19 @@
       <c r="BH96" s="11"/>
       <c r="BI96" s="11"/>
       <c r="BJ96" s="42"/>
-      <c r="BK96" s="163"/>
+      <c r="BK96" s="161"/>
       <c r="BL96" s="124"/>
       <c r="BM96" s="124"/>
       <c r="BN96" s="124"/>
       <c r="BO96" s="124"/>
       <c r="BP96" s="124"/>
-      <c r="BQ96" s="163"/>
-      <c r="BR96" s="163"/>
-      <c r="BS96" s="162"/>
-      <c r="BT96" s="55"/>
+      <c r="BQ96" s="124"/>
+      <c r="BR96" s="161"/>
+      <c r="BS96" s="161"/>
+      <c r="BT96" s="130"/>
+      <c r="BU96" s="55"/>
     </row>
-    <row r="97" spans="1:72">
+    <row r="97" spans="1:73">
       <c r="A97" s="12"/>
       <c r="B97" s="12">
         <v>2016</v>
@@ -14771,7 +14973,7 @@
       <c r="BA97" s="55"/>
       <c r="BB97" s="55"/>
       <c r="BC97" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD97" s="29"/>
@@ -14781,18 +14983,19 @@
       <c r="BH97" s="11"/>
       <c r="BI97" s="11"/>
       <c r="BJ97" s="42"/>
-      <c r="BK97" s="163"/>
+      <c r="BK97" s="161"/>
       <c r="BL97" s="124"/>
       <c r="BM97" s="124"/>
       <c r="BN97" s="124"/>
       <c r="BO97" s="124"/>
       <c r="BP97" s="124"/>
-      <c r="BQ97" s="163"/>
-      <c r="BR97" s="163"/>
-      <c r="BS97" s="162"/>
-      <c r="BT97" s="55"/>
+      <c r="BQ97" s="124"/>
+      <c r="BR97" s="161"/>
+      <c r="BS97" s="161"/>
+      <c r="BT97" s="130"/>
+      <c r="BU97" s="55"/>
     </row>
-    <row r="98" spans="1:72">
+    <row r="98" spans="1:73">
       <c r="A98" s="12"/>
       <c r="B98" s="12">
         <v>2015</v>
@@ -14850,7 +15053,7 @@
       <c r="BA98" s="55"/>
       <c r="BB98" s="55"/>
       <c r="BC98" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD98" s="29"/>
@@ -14860,18 +15063,19 @@
       <c r="BH98" s="11"/>
       <c r="BI98" s="11"/>
       <c r="BJ98" s="42"/>
-      <c r="BK98" s="163"/>
+      <c r="BK98" s="161"/>
       <c r="BL98" s="124"/>
       <c r="BM98" s="124"/>
       <c r="BN98" s="124"/>
       <c r="BO98" s="124"/>
       <c r="BP98" s="124"/>
-      <c r="BQ98" s="163"/>
-      <c r="BR98" s="163"/>
-      <c r="BS98" s="162"/>
-      <c r="BT98" s="55"/>
+      <c r="BQ98" s="124"/>
+      <c r="BR98" s="161"/>
+      <c r="BS98" s="161"/>
+      <c r="BT98" s="130"/>
+      <c r="BU98" s="55"/>
     </row>
-    <row r="99" spans="1:72">
+    <row r="99" spans="1:73">
       <c r="A99" s="12"/>
       <c r="B99" s="12">
         <v>2014</v>
@@ -14929,7 +15133,7 @@
       <c r="BA99" s="55"/>
       <c r="BB99" s="55"/>
       <c r="BC99" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD99" s="29"/>
@@ -14939,18 +15143,19 @@
       <c r="BH99" s="11"/>
       <c r="BI99" s="11"/>
       <c r="BJ99" s="42"/>
-      <c r="BK99" s="163"/>
+      <c r="BK99" s="161"/>
       <c r="BL99" s="124"/>
       <c r="BM99" s="124"/>
       <c r="BN99" s="124"/>
       <c r="BO99" s="124"/>
       <c r="BP99" s="124"/>
-      <c r="BQ99" s="163"/>
-      <c r="BR99" s="163"/>
-      <c r="BS99" s="162"/>
-      <c r="BT99" s="55"/>
+      <c r="BQ99" s="124"/>
+      <c r="BR99" s="161"/>
+      <c r="BS99" s="161"/>
+      <c r="BT99" s="130"/>
+      <c r="BU99" s="55"/>
     </row>
-    <row r="100" spans="1:72">
+    <row r="100" spans="1:73">
       <c r="A100" s="12"/>
       <c r="B100" s="12">
         <v>2013</v>
@@ -15008,7 +15213,7 @@
       <c r="BA100" s="55"/>
       <c r="BB100" s="55"/>
       <c r="BC100" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD100" s="29"/>
@@ -15018,18 +15223,19 @@
       <c r="BH100" s="11"/>
       <c r="BI100" s="11"/>
       <c r="BJ100" s="42"/>
-      <c r="BK100" s="163"/>
+      <c r="BK100" s="161"/>
       <c r="BL100" s="124"/>
       <c r="BM100" s="124"/>
       <c r="BN100" s="124"/>
       <c r="BO100" s="124"/>
       <c r="BP100" s="124"/>
-      <c r="BQ100" s="163"/>
-      <c r="BR100" s="163"/>
-      <c r="BS100" s="162"/>
-      <c r="BT100" s="55"/>
+      <c r="BQ100" s="124"/>
+      <c r="BR100" s="161"/>
+      <c r="BS100" s="161"/>
+      <c r="BT100" s="130"/>
+      <c r="BU100" s="55"/>
     </row>
-    <row r="101" spans="1:72">
+    <row r="101" spans="1:73">
       <c r="A101" s="12"/>
       <c r="B101" s="12">
         <v>2012</v>
@@ -15087,7 +15293,7 @@
       <c r="BA101" s="55"/>
       <c r="BB101" s="55"/>
       <c r="BC101" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BD101" s="29"/>
@@ -15097,33 +15303,35 @@
       <c r="BH101" s="11"/>
       <c r="BI101" s="11"/>
       <c r="BJ101" s="42"/>
-      <c r="BK101" s="163"/>
+      <c r="BK101" s="161"/>
       <c r="BL101" s="124"/>
       <c r="BM101" s="124"/>
       <c r="BN101" s="124"/>
       <c r="BO101" s="124"/>
       <c r="BP101" s="124"/>
-      <c r="BQ101" s="163"/>
-      <c r="BR101" s="163"/>
-      <c r="BS101" s="162"/>
-      <c r="BT101" s="55"/>
+      <c r="BQ101" s="124"/>
+      <c r="BR101" s="161"/>
+      <c r="BS101" s="161"/>
+      <c r="BT101" s="130"/>
+      <c r="BU101" s="55"/>
     </row>
-    <row r="102" spans="55:70">
+    <row r="102" spans="55:71">
       <c r="BC102" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="BK102" s="164"/>
+      <c r="BK102" s="162"/>
       <c r="BL102" s="120"/>
       <c r="BM102" s="120"/>
       <c r="BN102" s="120"/>
       <c r="BO102" s="120"/>
       <c r="BP102" s="120"/>
-      <c r="BQ102" s="164"/>
-      <c r="BR102" s="164"/>
+      <c r="BQ102" s="120"/>
+      <c r="BR102" s="162"/>
+      <c r="BS102" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="75">
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="T1:AB1"/>
     <mergeCell ref="A1:A2"/>
@@ -15190,14 +15398,15 @@
     <mergeCell ref="BR1:BR2"/>
     <mergeCell ref="BS1:BS2"/>
     <mergeCell ref="BT1:BT2"/>
-    <mergeCell ref="BT3:BT13"/>
-    <mergeCell ref="BT14:BT24"/>
-    <mergeCell ref="BT25:BT35"/>
-    <mergeCell ref="BT36:BT46"/>
-    <mergeCell ref="BT47:BT57"/>
     <mergeCell ref="BU1:BU2"/>
+    <mergeCell ref="BU3:BU13"/>
+    <mergeCell ref="BU14:BU24"/>
+    <mergeCell ref="BU25:BU35"/>
+    <mergeCell ref="BU36:BU46"/>
+    <mergeCell ref="BU47:BU57"/>
     <mergeCell ref="BV1:BV2"/>
     <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="BX1:BX2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -15293,27 +15502,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>43</v>
@@ -15325,14 +15534,14 @@
         <v>42</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="42"/>
       <c r="R1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -15340,26 +15549,26 @@
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
       <c r="X1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE1" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="102" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG1" s="102" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH1" s="42"/>
       <c r="AI1" s="42"/>
@@ -15370,63 +15579,63 @@
       <c r="AN1" s="42"/>
       <c r="AO1" s="42"/>
       <c r="AP1" s="99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AQ1" s="99"/>
       <c r="AR1" s="99"/>
       <c r="AS1" s="99"/>
       <c r="AT1" s="99"/>
       <c r="AU1" s="99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AV1" s="99"/>
       <c r="AW1" s="99"/>
       <c r="AX1" s="99"/>
       <c r="AY1" s="99"/>
       <c r="AZ1" s="99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BA1" s="99"/>
       <c r="BB1" s="99"/>
       <c r="BC1" s="99"/>
       <c r="BD1" s="42"/>
       <c r="BE1" s="99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BF1" s="99"/>
       <c r="BG1" s="99"/>
       <c r="BH1" s="99"/>
       <c r="BI1" s="99"/>
       <c r="BJ1" s="99" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BK1" s="99"/>
       <c r="BL1" s="99"/>
       <c r="BM1" s="99"/>
       <c r="BN1" s="99"/>
       <c r="BO1" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BP1" s="42"/>
       <c r="BQ1" s="42"/>
       <c r="BR1" s="42"/>
       <c r="BS1" s="42"/>
       <c r="BT1" s="99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BU1" s="99"/>
       <c r="BV1" s="99"/>
       <c r="BW1" s="99"/>
       <c r="BX1" s="99"/>
       <c r="BY1" s="99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BZ1" s="99"/>
       <c r="CA1" s="99"/>
       <c r="CB1" s="99"/>
       <c r="CC1" s="99"/>
       <c r="CD1" s="42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE1" s="42"/>
       <c r="CF1" s="42"/>
@@ -15435,7 +15644,7 @@
       <c r="CI1" s="99"/>
       <c r="CJ1" s="99"/>
       <c r="CK1" s="99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="CL1" s="99"/>
       <c r="CM1" s="99"/>
@@ -15460,34 +15669,34 @@
       <c r="DF1" s="99"/>
       <c r="DG1" s="99"/>
       <c r="DH1" s="99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DI1" s="99"/>
       <c r="DJ1" s="99"/>
       <c r="DK1" s="99"/>
       <c r="DL1" s="99"/>
       <c r="DM1" s="99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DN1" s="99"/>
       <c r="DO1" s="99"/>
       <c r="DP1" s="99"/>
       <c r="DQ1" s="99"/>
       <c r="DR1" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DS1" s="42"/>
       <c r="DT1" s="42"/>
       <c r="DU1" s="42"/>
       <c r="DV1" s="42"/>
       <c r="DW1" s="42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DX1" s="42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DY1" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DZ1" s="11"/>
       <c r="EA1" s="11"/>
@@ -15505,7 +15714,7 @@
       <c r="EM1" s="11"/>
       <c r="EN1" s="11"/>
       <c r="EO1" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="EP1" s="42"/>
       <c r="EQ1" s="42"/>
@@ -15522,7 +15731,7 @@
       <c r="FB1" s="42"/>
       <c r="FC1" s="11"/>
       <c r="FD1" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="FE1" s="42"/>
       <c r="FF1" s="11"/>
@@ -15553,62 +15762,62 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R2" s="97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S2" s="97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T2" s="97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U2" s="97" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V2" s="97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W2" s="97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X2" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="98" t="s">
         <v>136</v>
-      </c>
-      <c r="Y2" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z2" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA2" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB2" s="98" t="s">
-        <v>135</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="42"/>
       <c r="AF2" s="102"/>
       <c r="AG2" s="102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH2" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK2" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL2" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AM2" s="42" t="s">
         <v>41</v>
@@ -15617,390 +15826,390 @@
         <v>42</v>
       </c>
       <c r="AO2" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP2" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AQ2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR2" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AR2" s="97" t="s">
+      <c r="AV2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AW2" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="AT2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV2" s="11" t="s">
+      <c r="AX2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="AW2" s="97" t="s">
+      <c r="BA2" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="BB2" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="AY2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ2" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BC2" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD2" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BB2" s="89" t="s">
+      <c r="BF2" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="BC2" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD2" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF2" s="11" t="s">
+      <c r="BG2" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BG2" s="97" t="s">
+      <c r="BK2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BH2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BN2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="BL2" s="97" t="s">
+      <c r="BP2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ2" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR2" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="BM2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO2" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BP2" s="42" t="s">
+      <c r="BS2" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BQ2" s="89" t="s">
+      <c r="BU2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV2" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BR2" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="BS2" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU2" s="11" t="s">
+      <c r="BX2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BY2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BV2" s="97" t="s">
+      <c r="BZ2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="CA2" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BW2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BY2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="BZ2" s="11" t="s">
+      <c r="CC2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CD2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="CA2" s="97" t="s">
+      <c r="CE2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="CF2" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG2" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="CB2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="CC2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="CD2" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE2" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="CF2" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="CG2" s="42" t="s">
-        <v>144</v>
-      </c>
       <c r="CH2" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CJ2" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CK2" s="106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CL2" s="107" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CM2" s="108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CN2" s="108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CO2" s="108" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CP2" s="108" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CQ2" s="109" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="CR2" s="109" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="CS2" s="109" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CT2" s="97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CU2" s="97" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CV2" s="97" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CW2" s="97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CX2" s="97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CY2" s="97" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CZ2" s="97" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DA2" s="97" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DB2" s="97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DC2" s="97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DD2" s="97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DE2" s="97" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DF2" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DG2" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DH2" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DI2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="DL2" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="DM2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="DJ2" s="11" t="s">
+      <c r="DN2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="DK2" s="11" t="s">
+      <c r="DO2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="DL2" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="DM2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN2" s="11" t="s">
+      <c r="DP2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ2" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="DR2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="DO2" s="11" t="s">
+      <c r="DS2" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="DP2" s="11" t="s">
+      <c r="DT2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="DQ2" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="DR2" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DS2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="DT2" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="DU2" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DV2" s="99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DW2" s="42"/>
       <c r="DX2" s="42"/>
       <c r="DY2" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DZ2" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA2" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="EB2" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC2" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="EE2" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="EF2" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="EG2" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="EA2" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="EB2" s="110" t="s">
+      <c r="EH2" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="EI2" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="EJ2" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="EK2" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="EL2" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="EM2" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="EN2" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="EO2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="EP2" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="EC2" s="110" t="s">
+      <c r="EQ2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="ER2" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="ED2" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="EE2" s="42" t="s">
+      <c r="ES2" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="ET2" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="EF2" s="42" t="s">
+      <c r="EU2" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="EG2" s="42" t="s">
+      <c r="EV2" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="EH2" s="112" t="s">
+      <c r="EW2" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="EX2" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="EY2" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="FA2" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="FB2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="FC2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="FD2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="FE2" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="FG2" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="FH2" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="EI2" s="112" t="s">
-        <v>178</v>
-      </c>
-      <c r="EJ2" s="113" t="s">
+      <c r="FI2" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="FJ2" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="EK2" s="113" t="s">
+      <c r="FK2" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="EL2" s="113" t="s">
+      <c r="FL2" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="EM2" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="EN2" s="42" t="s">
+      <c r="FM2" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="FN2" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="EO2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="EP2" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="EQ2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="ER2" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="ES2" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="ET2" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="EU2" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="EV2" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="EW2" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="EX2" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="EY2" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="EZ2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FA2" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="FB2" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="FC2" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="FD2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="FE2" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="FF2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="FG2" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="FH2" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="FI2" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="FJ2" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="FK2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="FL2" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="FM2" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="FN2" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:170">
@@ -16008,7 +16217,7 @@
         <v>2022</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="29">
         <v>25609651543.29</v>
@@ -21603,7 +21812,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="29">
         <v>5341040998.68</v>
@@ -24335,7 +24544,7 @@
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" s="29">
         <v>2436471672.19</v>
@@ -24399,23 +24608,23 @@
         <v>0.634429870379161</v>
       </c>
       <c r="AH26" s="42">
-        <f t="shared" ref="AH26:AH33" si="103">G26/$C26</f>
+        <f t="shared" ref="AH26:AH35" si="103">G26/$C26</f>
         <v>0.634429870379161</v>
       </c>
       <c r="AI26" s="42">
-        <f t="shared" ref="AI26:AI33" si="104">H26/$C26</f>
+        <f t="shared" ref="AI26:AI35" si="104">H26/$C26</f>
         <v>0.00859267183319314</v>
       </c>
       <c r="AJ26" s="42">
-        <f t="shared" ref="AJ26:AJ33" si="105">I26/$C26</f>
+        <f t="shared" ref="AJ26:AJ35" si="105">I26/$C26</f>
         <v>0.135832385977436</v>
       </c>
       <c r="AK26" s="42">
-        <f t="shared" ref="AK26:AK33" si="106">J26/$C26</f>
+        <f t="shared" ref="AK26:AK35" si="106">J26/$C26</f>
         <v>0.0299468136949101</v>
       </c>
       <c r="AL26" s="42">
-        <f t="shared" ref="AL26:AL33" si="107">K26/$C26</f>
+        <f t="shared" ref="AL26:AL35" si="107">K26/$C26</f>
         <v>0.0264829041381805</v>
       </c>
       <c r="AM26" s="42">
@@ -26451,35 +26660,35 @@
         <v>0.901301431136892</v>
       </c>
       <c r="AH34" s="42">
-        <f>G34/$C34</f>
+        <f t="shared" si="103"/>
         <v>0.674872061278134</v>
       </c>
       <c r="AI34" s="42">
-        <f>H34/$C34</f>
+        <f t="shared" si="104"/>
         <v>0.00508782515307606</v>
       </c>
       <c r="AJ34" s="42">
-        <f>I34/$C34</f>
+        <f t="shared" si="105"/>
         <v>0.151360841866153</v>
       </c>
       <c r="AK34" s="42">
-        <f>J34/$C34</f>
+        <f t="shared" si="106"/>
         <v>0.0596788997870652</v>
       </c>
       <c r="AL34" s="42">
-        <f>K34/$C34</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AM34" s="42">
-        <f>M34/C34</f>
+        <f t="shared" si="91"/>
         <v>0.0986985688631085</v>
       </c>
       <c r="AN34" s="42">
-        <f>N34/C34</f>
+        <f t="shared" si="92"/>
         <v>0.0987714259465577</v>
       </c>
       <c r="AO34" s="42">
-        <f>P34/C34</f>
+        <f t="shared" si="93"/>
         <v>0.0813956528169531</v>
       </c>
       <c r="AP34" s="99"/>
@@ -26683,35 +26892,35 @@
         <v>0.87083366649592</v>
       </c>
       <c r="AH35" s="42">
-        <f>G35/$C35</f>
+        <f t="shared" si="103"/>
         <v>0.678462085098543</v>
       </c>
       <c r="AI35" s="42">
-        <f>H35/$C35</f>
+        <f t="shared" si="104"/>
         <v>0.00717281205569992</v>
       </c>
       <c r="AJ35" s="42">
-        <f>I35/$C35</f>
+        <f t="shared" si="105"/>
         <v>0.124688493273829</v>
       </c>
       <c r="AK35" s="42">
-        <f>J35/$C35</f>
+        <f t="shared" si="106"/>
         <v>0.0533291480133528</v>
       </c>
       <c r="AL35" s="42">
-        <f>K35/$C35</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AM35" s="42">
-        <f>M35/C35</f>
+        <f t="shared" si="91"/>
         <v>0.12916633350408</v>
       </c>
       <c r="AN35" s="42">
-        <f>N35/C35</f>
+        <f t="shared" si="92"/>
         <v>0.136486285407767</v>
       </c>
       <c r="AO35" s="42">
-        <f>P35/C35</f>
+        <f t="shared" si="93"/>
         <v>0.115023691735948</v>
       </c>
       <c r="AP35" s="99"/>
@@ -27041,7 +27250,7 @@
         <v>2022</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" s="29">
         <v>2690710152.71</v>
@@ -29435,13 +29644,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -29454,22 +29663,22 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H2" s="85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I2" s="89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -29836,25 +30045,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29865,7 +30074,7 @@
         <v>41820</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D2" s="73">
         <v>34509447.38</v>
@@ -29899,22 +30108,22 @@
         <v>2017</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" s="79">
         <v>0.105</v>
@@ -29925,7 +30134,7 @@
         <v>42767</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D6" s="73">
         <v>40271000</v>
@@ -29934,10 +30143,10 @@
         <v>15090466.13</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H6" s="79">
         <v>0.105</v>
@@ -29953,13 +30162,13 @@
         <v>2019</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H8" s="79">
         <v>0.1436</v>
@@ -29967,13 +30176,13 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H9" s="79">
         <v>0.1436</v>
@@ -29984,18 +30193,18 @@
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H11" s="79">
         <v>0.1382</v>
@@ -30003,13 +30212,13 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H12" s="79">
         <v>0.1382</v>
@@ -30020,19 +30229,19 @@
         <v>2021</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D14" s="74"/>
       <c r="F14" s="80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H14" s="79">
         <v>0.1382</v>
@@ -30040,14 +30249,14 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D15" s="74"/>
       <c r="F15" s="81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" s="79">
         <v>0.1382</v>
@@ -30058,21 +30267,21 @@
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" s="74"/>
       <c r="H16" s="79"/>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" s="74"/>
       <c r="F17" s="82">
         <v>0.27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" s="79">
         <v>0.1382</v>
@@ -30080,17 +30289,17 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D18" s="74">
         <f>(6312.5+10605)*10000</f>
         <v>169175000</v>
       </c>
       <c r="F18" s="81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H18" s="79">
         <v>0.1382</v>
@@ -30101,7 +30310,7 @@
         <v>2022</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D19" s="74">
         <v>440181000</v>
@@ -30110,10 +30319,10 @@
         <v>97846575.6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H19" s="83">
         <v>0.1382</v>
@@ -30124,7 +30333,7 @@
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D20" s="73">
         <v>532808000</v>
@@ -30133,10 +30342,10 @@
         <v>97491384.51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H20" s="79">
         <v>0.1475</v>
@@ -30186,37 +30395,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>237</v>
-      </c>
       <c r="F2" s="55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="409.5" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="63">
         <v>2022</v>
@@ -30224,13 +30433,13 @@
       <c r="C3" s="63"/>
       <c r="D3" s="65"/>
       <c r="E3" s="69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:6">
@@ -30241,10 +30450,10 @@
       <c r="C4" s="63"/>
       <c r="D4" s="66"/>
       <c r="E4" s="69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:6">
@@ -30255,10 +30464,10 @@
       <c r="C5" s="63"/>
       <c r="D5" s="65"/>
       <c r="E5" s="69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:6">
@@ -30269,10 +30478,10 @@
       <c r="C6" s="63"/>
       <c r="D6" s="65"/>
       <c r="E6" s="69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:6">
@@ -30283,10 +30492,10 @@
       <c r="C7" s="63"/>
       <c r="D7" s="65"/>
       <c r="E7" s="69" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:6">
@@ -30297,10 +30506,10 @@
       <c r="C8" s="63"/>
       <c r="D8" s="65"/>
       <c r="E8" s="69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" ht="370" spans="1:6">
@@ -30311,10 +30520,10 @@
       <c r="C9" s="63"/>
       <c r="D9" s="65"/>
       <c r="E9" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F9" s="70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" ht="387" spans="1:6">
@@ -30325,10 +30534,10 @@
       <c r="C10" s="63"/>
       <c r="D10" s="65"/>
       <c r="E10" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" ht="404" spans="1:6">
@@ -30339,10 +30548,10 @@
       <c r="C11" s="63"/>
       <c r="D11" s="65"/>
       <c r="E11" s="69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:6">
@@ -30353,10 +30562,10 @@
       <c r="C12" s="63"/>
       <c r="D12" s="65"/>
       <c r="E12" s="69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -30370,7 +30579,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="63">
         <v>2022</v>
@@ -30482,17 +30691,17 @@
     </row>
     <row r="25" ht="409.5" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="63">
         <v>2022</v>
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" ht="409.5" spans="1:6">
@@ -30502,10 +30711,10 @@
       </c>
       <c r="C26" s="63"/>
       <c r="D26" s="66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F26" s="70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" ht="409.5" spans="1:6">
@@ -30515,10 +30724,10 @@
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F27" s="70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" ht="409.5" spans="1:6">
@@ -30528,10 +30737,10 @@
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F28" s="70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" ht="409.5" spans="1:6">
@@ -30541,10 +30750,10 @@
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F29" s="70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" ht="409.5" spans="1:6">
@@ -30553,13 +30762,13 @@
         <v>2017</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" ht="409.5" spans="1:6">
@@ -30568,13 +30777,13 @@
         <v>2016</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -30615,17 +30824,17 @@
     </row>
     <row r="36" ht="409.5" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="63">
         <v>2022</v>
       </c>
       <c r="C36" s="63"/>
       <c r="D36" s="66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" ht="409.5" spans="1:6">
@@ -30635,10 +30844,10 @@
       </c>
       <c r="C37" s="63"/>
       <c r="D37" s="66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F37" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" ht="409.5" spans="1:6">
@@ -30649,7 +30858,7 @@
       <c r="C38" s="63"/>
       <c r="D38" s="65"/>
       <c r="F38" s="70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" ht="409.5" spans="1:6">
@@ -30661,7 +30870,7 @@
       <c r="D39" s="65"/>
       <c r="E39" s="69"/>
       <c r="F39" s="70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -30729,7 +30938,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="63">
         <v>2022</v>
@@ -30830,7 +31039,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="63">
         <v>2022</v>
@@ -30931,7 +31140,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="63">
         <v>2022</v>
@@ -31032,7 +31241,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="63">
         <v>2022</v>
@@ -31133,7 +31342,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="63">
         <v>2022</v>
@@ -31336,10 +31545,10 @@
         <v>20</v>
       </c>
       <c r="AG1" s="45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH1" s="46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI1" s="47" t="s">
         <v>43</v>
@@ -31348,13 +31557,13 @@
         <v>44</v>
       </c>
       <c r="AK1" s="48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL1" s="48"/>
       <c r="AM1" s="48"/>
       <c r="AN1" s="48"/>
       <c r="AO1" s="50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP1" s="51" t="s">
         <v>45</v>
@@ -31387,7 +31596,7 @@
         <v>38</v>
       </c>
       <c r="AZ1" s="57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:52">
@@ -31398,56 +31607,56 @@
       <c r="E2" s="8"/>
       <c r="F2" s="19"/>
       <c r="G2" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="26"/>
       <c r="Z2" s="33"/>
@@ -31462,16 +31671,16 @@
       <c r="AI2" s="47"/>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL2" s="49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM2" s="49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN2" s="48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO2" s="50"/>
       <c r="AP2" s="53"/>
@@ -31488,7 +31697,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9">
         <v>2022</v>
@@ -31623,7 +31832,7 @@
         <v>19285851426.62</v>
       </c>
       <c r="AZ3" s="58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -32944,7 +33153,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B14" s="4">
         <v>2022</v>
@@ -33859,7 +34068,7 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25" s="4">
         <v>2022</v>
@@ -34708,7 +34917,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" s="9">
         <v>2022</v>
@@ -35539,7 +35748,7 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" s="9">
         <v>2022</v>
@@ -36482,7 +36691,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" s="4">
         <v>2022</v>
@@ -37390,7 +37599,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B69" s="9">
         <v>2022</v>
@@ -38235,7 +38444,7 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B80" s="9">
         <v>2022</v>
@@ -39094,7 +39303,7 @@
     </row>
     <row r="91" spans="1:43">
       <c r="A91" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B91" s="4">
         <v>2022</v>
@@ -40012,28 +40221,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -40111,47 +40320,47 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" ht="101" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="7:7">
       <c r="G3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -40183,10 +40392,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -40194,13 +40403,13 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -40208,13 +40417,13 @@
         <v>2024</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -40222,13 +40431,13 @@
         <v>2025</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -40236,10 +40445,10 @@
         <v>2026</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -40247,7 +40456,7 @@
         <v>2027</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -40255,7 +40464,7 @@
         <v>2028</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -40263,7 +40472,7 @@
         <v>2029</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -40271,7 +40480,7 @@
         <v>2030</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -40279,7 +40488,7 @@
         <v>2031</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -40287,7 +40496,7 @@
         <v>2032</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -40295,7 +40504,7 @@
         <v>2033</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/海天味业/分析结果/投入资本计算表1.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/海天味业/分析结果/投入资本计算表1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31020" windowHeight="12760"/>
+    <workbookView windowWidth="27240" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -2290,8 +2290,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -2332,6 +2332,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2346,22 +2353,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2369,9 +2360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2394,7 +2384,69 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2409,29 +2461,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2440,36 +2470,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2610,7 +2610,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2622,43 +2706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2676,31 +2724,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,55 +2754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2772,7 +2766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,8 +2878,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2888,7 +2888,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2908,16 +2908,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2930,6 +2939,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2948,123 +2972,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="50" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3073,52 +3073,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3970,11 +3970,11 @@
   <dimension ref="A1:CJ123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4406,7 +4406,7 @@
       <c r="D3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="46">
         <v>4633833787</v>
       </c>
       <c r="F3" s="12">
@@ -4641,7 +4641,7 @@
       <c r="D4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="46">
         <v>4212576170</v>
       </c>
       <c r="F4" s="12">
@@ -4872,7 +4872,7 @@
       <c r="D5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="46">
         <v>3240443208</v>
       </c>
       <c r="F5" s="12">
@@ -5099,14 +5099,14 @@
       <c r="D6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="20">
         <v>2700369340</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="13"/>
         <v>6.14645801815762</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="53">
         <f t="shared" si="0"/>
         <v>0.195126336829306</v>
       </c>
@@ -5326,14 +5326,14 @@
       <c r="D7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="20">
         <v>2700369340</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="13"/>
         <v>5.14293579577896</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="53">
         <f t="shared" si="0"/>
         <v>0.180884710705892</v>
       </c>
@@ -5553,14 +5553,14 @@
       <c r="D8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="20">
         <v>2701206700</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="20">
         <f t="shared" si="13"/>
         <v>4.35515486749311</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="53">
         <f t="shared" si="0"/>
         <v>0.176428046023955</v>
       </c>
@@ -5782,14 +5782,14 @@
       <c r="D9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="20">
         <v>2704950700</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="20">
         <f t="shared" si="13"/>
         <v>3.70201550550626</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="53">
         <f t="shared" si="0"/>
         <v>0.144831546210893</v>
       </c>
@@ -6007,10 +6007,10 @@
       <c r="D10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="20">
         <v>2706246000</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="20">
         <f t="shared" si="13"/>
         <v>3.23367705734438</v>
       </c>
@@ -6232,10 +6232,10 @@
       <c r="D11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="46">
         <v>1503580000</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="20">
         <f t="shared" si="13"/>
         <v>4.98005570397984</v>
       </c>
